--- a/tests/test1/d10/ЛМ, 0.2.xlsx
+++ b/tests/test1/d10/ЛМ, 0.2.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.006313599999998587</v>
+        <v>0.007294100000009962</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002950299999994854</v>
+        <v>0.002997299999989878</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003990200000004052</v>
+        <v>0.002122499999998695</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.005062600000002249</v>
+        <v>0.004370899999997846</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.006765400000006139</v>
+        <v>0.01175680000000057</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002428299999991168</v>
+        <v>0.002386900000004744</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.006274399999995239</v>
+        <v>0.006094400000009159</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.003145200000005843</v>
+        <v>0.004350700000003371</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005224100000006615</v>
+        <v>0.005129100000004883</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.003286799999997925</v>
+        <v>0.002348099999991859</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003462999999996441</v>
+        <v>0.003161399999996206</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.00286200000000747</v>
+        <v>0.003383900000002882</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002159300000002418</v>
+        <v>0.001987900000003151</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.006591900000003648</v>
+        <v>0.006756099999989829</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004751399999989303</v>
+        <v>0.004173600000001443</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.00726410000000044</v>
+        <v>0.004792700000010086</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002131099999999719</v>
+        <v>0.00201300000000515</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002540100000004486</v>
+        <v>0.002309800000006135</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.005230800000006752</v>
+        <v>0.005136800000002495</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002266200000008212</v>
+        <v>0.002036099999997987</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.005130699999995159</v>
+        <v>0.00475750000001085</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001945199999994429</v>
+        <v>0.001803800000004685</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.004917899999995257</v>
+        <v>0.00196640000000059</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.00690699999999822</v>
+        <v>0.005946499999993193</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.006462100000007354</v>
+        <v>0.007636700000006158</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.007493900000000053</v>
+        <v>0.005794800000003875</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.00582180000000676</v>
+        <v>0.002373099999999795</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003435000000010291</v>
+        <v>0.003125500000010106</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.006101199999989149</v>
+        <v>0.005026299999997264</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.009786699999992265</v>
+        <v>0.007146699999992734</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.008219199999999205</v>
+        <v>0.004625599999997121</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002351399999994896</v>
+        <v>0.004188899999988394</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.008332999999993262</v>
+        <v>0.005778800000001638</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002422300000006317</v>
+        <v>0.002307599999994636</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002238599999998314</v>
+        <v>0.001793900000009785</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003088700000006384</v>
+        <v>0.004829900000004272</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.006157899999990946</v>
+        <v>0.005695399999993356</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.007363699999999085</v>
+        <v>0.005621900000008395</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003108699999998521</v>
+        <v>0.002805699999996136</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.006355999999996698</v>
+        <v>0.004284299999994801</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002141100000002893</v>
+        <v>0.002866300000007982</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003489400000006526</v>
+        <v>0.002108100000000945</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003103699999996934</v>
+        <v>0.002835099999998647</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003507999999996514</v>
+        <v>0.002123600000004444</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004041999999998325</v>
+        <v>0.003765099999995414</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.008054100000009612</v>
+        <v>0.006251100000000065</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.006486100000003603</v>
+        <v>0.007657999999992171</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002334200000007058</v>
+        <v>0.002022599999989438</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001988099999991277</v>
+        <v>0.003302899999994224</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002213699999998653</v>
+        <v>0.002040399999998499</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.00299650000000895</v>
+        <v>0.004706100000007041</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003698799999995117</v>
+        <v>0.003211300000003803</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003366599999992559</v>
+        <v>0.005229499999998666</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.006053800000003662</v>
+        <v>0.005686699999998268</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.00237860000000012</v>
+        <v>0.002419900000006692</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002166500000001292</v>
+        <v>0.002149799999997981</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.006422799999995732</v>
+        <v>0.007466500000006704</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002107499999993934</v>
+        <v>0.002012600000000475</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002396300000000906</v>
+        <v>0.002421699999999305</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004635600000000295</v>
+        <v>0.004388099999999895</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002153399999997418</v>
+        <v>0.002146299999992607</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004891100000008919</v>
+        <v>0.004631899999992584</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001894999999990432</v>
+        <v>0.001873700000004419</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004304200000007086</v>
+        <v>0.007977700000012078</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002374700000004282</v>
+        <v>0.002818200000007209</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.003129099999995333</v>
+        <v>0.002323100000012346</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002290999999999599</v>
+        <v>0.002035699999993312</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004611900000000446</v>
+        <v>0.006395499999996446</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002328700000006734</v>
+        <v>0.002132299999999532</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002406899999996881</v>
+        <v>0.004375699999997096</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.007641700000007745</v>
+        <v>0.005468500000006316</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002117900000001782</v>
+        <v>0.002414400000006367</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002163199999998255</v>
+        <v>0.002108599999999683</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.005256799999997952</v>
+        <v>0.00666909999999632</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.003560600000000136</v>
+        <v>0.002282199999996237</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002801200000007498</v>
+        <v>0.003466099999997141</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002414700000002767</v>
+        <v>0.002242000000009625</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005644300000000158</v>
+        <v>0.007053499999997825</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.003357899999997471</v>
+        <v>0.001751699999999801</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003603300000008858</v>
+        <v>0.005391600000010044</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.00608820000000776</v>
+        <v>0.003979000000001065</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002985899999998765</v>
+        <v>0.002413000000004217</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.004094200000011483</v>
+        <v>0.002260400000011487</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002418699999992668</v>
+        <v>0.004542999999998187</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003035900000000424</v>
+        <v>0.001806000000001973</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.005136300000003757</v>
+        <v>0.006636200000002646</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003863899999998921</v>
+        <v>0.0020147000000037</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005347399999990898</v>
+        <v>0.006921800000000644</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.005594399999992561</v>
+        <v>0.00485159999999496</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003010500000002025</v>
+        <v>0.002903199999991557</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002178000000000679</v>
+        <v>0.002016999999995051</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002232200000008788</v>
+        <v>0.003229799999999727</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.007280800000003751</v>
+        <v>0.005233099999998103</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.005110899999991148</v>
+        <v>0.004854499999993322</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.005365499999996359</v>
+        <v>0.008493700000002491</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.003706400000012877</v>
+        <v>0.002084600000003434</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.00237549999999942</v>
+        <v>0.004218300000005115</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007620000000002847</v>
+        <v>0.007549800000006712</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.006061599999995337</v>
+        <v>0.005880599999997571</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.005247500000010064</v>
+        <v>0.006747899999993479</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 0.2.xlsx
+++ b/tests/test1/d10/ЛМ, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.007294100000009962</v>
+        <v>0.004967199999995842</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002997299999989878</v>
+        <v>0.003138399999997432</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002122499999998695</v>
+        <v>0.002220500000007064</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004370899999997846</v>
+        <v>0.007148899999990022</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.01175680000000057</v>
+        <v>0.007496600000010289</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002386900000004744</v>
+        <v>0.002633299999999394</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.006094400000009159</v>
+        <v>0.009137100000003784</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.004350700000003371</v>
+        <v>0.002228400000007014</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005129100000004883</v>
+        <v>0.007318200000000274</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002348099999991859</v>
+        <v>0.00191949999999963</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003161399999996206</v>
+        <v>0.003540700000002062</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.003383900000002882</v>
+        <v>0.00216559999999788</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.001987900000003151</v>
+        <v>0.002200799999997116</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.006756099999989829</v>
+        <v>0.005069800000001123</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004173600000001443</v>
+        <v>0.004649800000009918</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.004792700000010086</v>
+        <v>0.006886799999989535</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.00201300000000515</v>
+        <v>0.00216700000000003</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002309800000006135</v>
+        <v>0.002466400000002977</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.005136800000002495</v>
+        <v>0.005319200000002411</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002036099999997987</v>
+        <v>0.002914799999999218</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.00475750000001085</v>
+        <v>0.00531720000000746</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001803800000004685</v>
+        <v>0.004112300000002733</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.00196640000000059</v>
+        <v>0.002383000000008906</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.005946499999993193</v>
+        <v>0.004704500000002554</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.007636700000006158</v>
+        <v>0.01182779999999184</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005794800000003875</v>
+        <v>0.00940370000000712</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002373099999999795</v>
+        <v>0.002418000000005804</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003125500000010106</v>
+        <v>0.003729800000002115</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005026299999997264</v>
+        <v>0.008491800000001604</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.007146699999992734</v>
+        <v>0.005538500000000113</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004625599999997121</v>
+        <v>0.005047000000004687</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004188899999988394</v>
+        <v>0.00241730000000473</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.005778800000001638</v>
+        <v>0.006492600000001403</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002307599999994636</v>
+        <v>0.004347499999994398</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001793900000009785</v>
+        <v>0.002010600000005525</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.004829900000004272</v>
+        <v>0.004748300000002814</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.005695399999993356</v>
+        <v>0.006248800000008714</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005621900000008395</v>
+        <v>0.00594780000000128</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002805699999996136</v>
+        <v>0.003098899999997684</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004284299999994801</v>
+        <v>0.004706799999993905</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002866300000007982</v>
+        <v>0.002200699999988842</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002108100000000945</v>
+        <v>0.002179499999996892</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002835099999998647</v>
+        <v>0.003115699999995059</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002123600000004444</v>
+        <v>0.00217999999999563</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.003765099999995414</v>
+        <v>0.004130900000006932</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.006251100000000065</v>
+        <v>0.006466599999995992</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.007657999999992171</v>
+        <v>0.007974200000006704</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002022599999989438</v>
+        <v>0.002163300000006529</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003302899999994224</v>
+        <v>0.003289899999998624</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002040399999998499</v>
+        <v>0.00218169999999418</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004706100000007041</v>
+        <v>0.004238900000004264</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003211300000003803</v>
+        <v>0.003703500000000304</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.005229499999998666</v>
+        <v>0.005213400000002366</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.005686699999998268</v>
+        <v>0.006193999999993594</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002419900000006692</v>
+        <v>0.002423000000007391</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002149799999997981</v>
+        <v>0.002197899999998754</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.007466500000006704</v>
+        <v>0.007523700000007238</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002012600000000475</v>
+        <v>0.002154199999992557</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002421699999999305</v>
+        <v>0.002523800000005849</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004388099999999895</v>
+        <v>0.004772900000006075</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002146299999992607</v>
+        <v>0.00222719999999299</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004631899999992584</v>
+        <v>0.005088399999991111</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001873700000004419</v>
+        <v>0.002189999999998804</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.007977700000012078</v>
+        <v>0.004433599999998705</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002818200000007209</v>
+        <v>0.003330399999995848</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002323100000012346</v>
+        <v>0.004789099999996438</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002035699999993312</v>
+        <v>0.002361799999988534</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.006395499999996446</v>
+        <v>0.007276099999998564</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002132299999999532</v>
+        <v>0.003659999999996444</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.004375699999997096</v>
+        <v>0.003618000000003008</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005468500000006316</v>
+        <v>0.01086189999999476</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002414400000006367</v>
+        <v>0.002680400000002692</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002108599999999683</v>
+        <v>0.003315299999997023</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00666909999999632</v>
+        <v>0.00544039999999768</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002282199999996237</v>
+        <v>0.002469499999989466</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003466099999997141</v>
+        <v>0.002868199999994658</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002242000000009625</v>
+        <v>0.002411499999993794</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.007053499999997825</v>
+        <v>0.006122900000008258</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001751699999999801</v>
+        <v>0.001889599999998381</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.005391600000010044</v>
+        <v>0.003727900000001227</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003979000000001065</v>
+        <v>0.004413999999997031</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002413000000004217</v>
+        <v>0.002511099999992439</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002260400000011487</v>
+        <v>0.002412999999990006</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.004542999999998187</v>
+        <v>0.002943299999998317</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001806000000001973</v>
+        <v>0.001904999999993606</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.006636200000002646</v>
+        <v>0.007022899999995502</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7640,7 +7640,7 @@
         <v>36.63166941320934</v>
       </c>
       <c r="H88" t="n">
-        <v>5.448428599087531</v>
+        <v>5.448428599087532</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0.04053117130700303</v>
       </c>
       <c r="V88" t="n">
-        <v>0.03021304413054147</v>
+        <v>0.03021304413054107</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.0020147000000037</v>
+        <v>0.002162099999992506</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.006921800000000644</v>
+        <v>0.005733300000002828</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00485159999999496</v>
+        <v>0.006895000000000095</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002903199999991557</v>
+        <v>0.003071499999990124</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002016999999995051</v>
+        <v>0.002237399999998502</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003229799999999727</v>
+        <v>0.00221360000000459</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005233099999998103</v>
+        <v>0.007321300000000974</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8208,7 +8208,7 @@
         <v>359.9823166065312</v>
       </c>
       <c r="F95" t="n">
-        <v>9.998297668504859</v>
+        <v>9.998297668504858</v>
       </c>
       <c r="G95" t="n">
         <v>109.1282087392729</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.004854499999993322</v>
+        <v>0.0052802000000014</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.008493700000002491</v>
+        <v>0.007073800000000574</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002084600000003434</v>
+        <v>0.002215000000006739</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.004218300000005115</v>
+        <v>0.002456299999991529</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007549800000006712</v>
+        <v>0.005749600000001465</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.005880599999997571</v>
+        <v>0.006214700000001017</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.006747899999993479</v>
+        <v>0.007261799999994878</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 0.2.xlsx
+++ b/tests/test1/d10/ЛМ, 0.2.xlsx
@@ -588,7 +588,7 @@
         <v>98.82222232471447</v>
       </c>
       <c r="H2" t="n">
-        <v>11.6834291074383</v>
+        <v>11.68342910743829</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>70.60603944132164</v>
       </c>
       <c r="P2" t="n">
-        <v>15.92020078444005</v>
+        <v>15.92020078444004</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005703644452881336</v>
+        <v>0.005703644452882044</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08183956038353953</v>
+        <v>0.08183956038356677</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1295123938313276</v>
+        <v>0.1295123938313701</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03078874004215307</v>
+        <v>0.0307887400421622</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03996040259371691</v>
+        <v>0.03996040259371694</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04584261437937128</v>
+        <v>0.04584261437936957</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004967199999995842</v>
+        <v>0.005326000000000164</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -664,13 +664,13 @@
         <v>0.0108827906274743</v>
       </c>
       <c r="F3" t="n">
-        <v>9.931247932657474</v>
+        <v>9.931247932657477</v>
       </c>
       <c r="G3" t="n">
-        <v>74.99121520529739</v>
+        <v>74.99121520529738</v>
       </c>
       <c r="H3" t="n">
-        <v>11.52837283514244</v>
+        <v>11.52837283514245</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,22 +697,22 @@
         <v>18.16603362449591</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005592588859532633</v>
+        <v>0.005592588859532737</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06210229128761649</v>
+        <v>0.06210229128762334</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09958950644044925</v>
+        <v>0.09958950644045977</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02305190181832566</v>
+        <v>0.02305190181832624</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03976409115943817</v>
+        <v>0.03976409115943833</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05065074228083927</v>
+        <v>0.05065074228083812</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003138399999997432</v>
+        <v>0.002498899999999971</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -749,10 +749,10 @@
         <v>10.01500676732821</v>
       </c>
       <c r="G4" t="n">
-        <v>79.09891782316659</v>
+        <v>79.09891782316662</v>
       </c>
       <c r="H4" t="n">
-        <v>3.286986393036889</v>
+        <v>3.28698639303689</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>9.582484535352451</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004587228921076503</v>
+        <v>0.004587228921076653</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02833309461711122</v>
+        <v>0.02833309461711181</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02633120784914526</v>
+        <v>0.02633120784914685</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02597131832030053</v>
+        <v>0.02597131832030117</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04219162228248504</v>
+        <v>0.04219162228248505</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04651693039394181</v>
+        <v>0.0465169303939429</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002220500000007064</v>
+        <v>0.001609400000000427</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>0.04217844471824311</v>
       </c>
       <c r="F5" t="n">
-        <v>9.964119186856625</v>
+        <v>9.964119186856623</v>
       </c>
       <c r="G5" t="n">
         <v>99.1899785076864</v>
       </c>
       <c r="H5" t="n">
-        <v>11.41489455351595</v>
+        <v>11.41489455351594</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -855,28 +855,28 @@
         <v>15.67687823027242</v>
       </c>
       <c r="O5" t="n">
-        <v>70.6573892292553</v>
+        <v>70.65738922925529</v>
       </c>
       <c r="P5" t="n">
-        <v>15.57921003111065</v>
+        <v>15.57921003111064</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005563037127268151</v>
+        <v>0.005563037127268856</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07982612935532064</v>
+        <v>0.07982612935534374</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1252971320224229</v>
+        <v>0.1252971320224593</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0305136750073307</v>
+        <v>0.03051367500733841</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04183295291241129</v>
+        <v>0.04183295291241124</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03085025716505741</v>
+        <v>0.03085025716506586</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.007148899999990022</v>
+        <v>0.003702399999999884</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -916,7 +916,7 @@
         <v>174.0178667607425</v>
       </c>
       <c r="H6" t="n">
-        <v>9.605328804778553</v>
+        <v>9.605328804778555</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>149.6579274684753</v>
       </c>
       <c r="P6" t="n">
-        <v>4.690564006514859</v>
+        <v>4.69056400651486</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002066424441663711</v>
+        <v>0.002066424441663721</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02446039568802806</v>
+        <v>0.02446039568803283</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007750336684896493</v>
+        <v>0.007750336684897744</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02984349080458812</v>
+        <v>0.02984349080459393</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03756270267585095</v>
+        <v>0.03756270267585087</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02909902487239359</v>
+        <v>0.02909902487239437</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.007496600000010289</v>
+        <v>0.004329199999999922</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -992,13 +992,13 @@
         <v>359.9666162712977</v>
       </c>
       <c r="F7" t="n">
-        <v>10.03449094727917</v>
+        <v>10.03449094727918</v>
       </c>
       <c r="G7" t="n">
         <v>40.00143826833168</v>
       </c>
       <c r="H7" t="n">
-        <v>13.53730000316004</v>
+        <v>13.53730000316005</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>30.30084320141473</v>
       </c>
       <c r="P7" t="n">
-        <v>23.0048018810063</v>
+        <v>23.00480188100631</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005893647870823307</v>
+        <v>0.005893647870823466</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05694997014287626</v>
+        <v>0.05694997014287696</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07339709725808065</v>
+        <v>0.0733970972580837</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0732181779791415</v>
+        <v>0.07321817797914508</v>
       </c>
       <c r="U7" t="n">
         <v>0.03838540782210936</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03152364519329066</v>
+        <v>0.03152364519329309</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002633299999999394</v>
+        <v>0.004130399999999312</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>359.95187664269</v>
       </c>
       <c r="F8" t="n">
-        <v>10.11372094578914</v>
+        <v>10.11372094578915</v>
       </c>
       <c r="G8" t="n">
         <v>160.4371171441615</v>
       </c>
       <c r="H8" t="n">
-        <v>7.104594915088864</v>
+        <v>7.104594915088875</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>3.973338297383755</v>
       </c>
       <c r="O8" t="n">
-        <v>97.60117828829561</v>
+        <v>97.60117828829556</v>
       </c>
       <c r="P8" t="n">
-        <v>4.052260947425472</v>
+        <v>4.052260947425477</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0053198302129622</v>
+        <v>0.005319830212948801</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08185117492214709</v>
+        <v>0.08185117492185963</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05035955916962406</v>
+        <v>0.05035955916945</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07360285446341104</v>
+        <v>0.07360285446315253</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03709885749247537</v>
+        <v>0.0370988574924753</v>
       </c>
       <c r="V8" t="n">
-        <v>0.08705487136985945</v>
+        <v>0.08705487136987972</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.009137100000003784</v>
+        <v>0.005134800000000439</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1156,7 +1156,7 @@
         <v>0.02501476628856148</v>
       </c>
       <c r="F9" t="n">
-        <v>9.921698044374757</v>
+        <v>9.921698044374756</v>
       </c>
       <c r="G9" t="n">
         <v>13.62886824709869</v>
@@ -1186,25 +1186,25 @@
         <v>12.12217858036828</v>
       </c>
       <c r="P9" t="n">
-        <v>22.04570717206066</v>
+        <v>22.04570717206067</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005352038458457976</v>
+        <v>0.0053520384584579</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06248638056653892</v>
+        <v>0.06248638056653922</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03224789705581754</v>
+        <v>0.0322478970558174</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1091372684385553</v>
+        <v>0.1091372684385531</v>
       </c>
       <c r="U9" t="n">
         <v>0.03796575725247462</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05673371638734775</v>
+        <v>0.05673371638734677</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002228400000007014</v>
+        <v>0.002748799999999996</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1271,19 +1271,19 @@
         <v>11.83945993816247</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002592120563653875</v>
+        <v>0.002592120563653885</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03420804706471806</v>
+        <v>0.03420804706471994</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0285728246393215</v>
+        <v>0.02857282463932315</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05495518153722385</v>
+        <v>0.05495518153722688</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0437698981956595</v>
+        <v>0.04376989819565949</v>
       </c>
       <c r="V10" t="n">
         <v>0.0119110190890179</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.007318200000000274</v>
+        <v>0.004456399999999583</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1323,10 +1323,10 @@
         <v>10.04891727715489</v>
       </c>
       <c r="G11" t="n">
-        <v>1.891880697474307</v>
+        <v>1.89188069747432</v>
       </c>
       <c r="H11" t="n">
-        <v>8.977901793897088</v>
+        <v>8.977901793897091</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>18.26392781482533</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004283989606378079</v>
+        <v>0.004283989606378098</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08614680363665167</v>
+        <v>0.08614680363665195</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01594115389130431</v>
+        <v>0.01594115389130443</v>
       </c>
       <c r="T11" t="n">
-        <v>0.139716455127646</v>
+        <v>0.1397164551276471</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04188200802758486</v>
+        <v>0.04188200802758502</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01491636622615693</v>
+        <v>0.01491636622615595</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.00191949999999963</v>
+        <v>0.001487199999999689</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>138.8431075538348</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25131824904905</v>
+        <v>3.251318249049051</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1429,28 +1429,28 @@
         <v>5.809547132347129</v>
       </c>
       <c r="O12" t="n">
-        <v>40.04368645142698</v>
+        <v>40.04368645142697</v>
       </c>
       <c r="P12" t="n">
-        <v>5.806824978736323</v>
+        <v>5.806824978736325</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004185579805326516</v>
+        <v>0.004185579805326495</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02213986193890984</v>
+        <v>0.02213986193890909</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02027104287742242</v>
+        <v>0.02027104287742214</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01475253752513082</v>
+        <v>0.01475253752513058</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0355906635436199</v>
+        <v>0.03559066354361987</v>
       </c>
       <c r="V12" t="n">
-        <v>0.006087360796119292</v>
+        <v>0.006087360796112361</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003540700000002062</v>
+        <v>0.002803199999999784</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1490,7 +1490,7 @@
         <v>32.07559238242624</v>
       </c>
       <c r="H13" t="n">
-        <v>3.21059106900859</v>
+        <v>3.210591069008592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>11.06335211144721</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.004370748885460547</v>
+        <v>0.004370748885460699</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03281628772096303</v>
+        <v>0.03281628772096388</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01898504294712262</v>
+        <v>0.01898504294712307</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04876450114911408</v>
+        <v>0.04876450114911673</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0385034729811486</v>
+        <v>0.03850347298114844</v>
       </c>
       <c r="V13" t="n">
-        <v>0.05376667622432917</v>
+        <v>0.05376667622432692</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.00216559999999788</v>
+        <v>0.001729800000000559</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1599,22 +1599,22 @@
         <v>21.6574707192275</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.005666019144142242</v>
+        <v>0.005666019144142205</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05294711389144425</v>
+        <v>0.052947113891446</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04883174399202612</v>
+        <v>0.04883174399202728</v>
       </c>
       <c r="T14" t="n">
         <v>0.08088225679723647</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04028973127686877</v>
+        <v>0.0402897312768687</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04590695198863669</v>
+        <v>0.04590695198863631</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002200799999997116</v>
+        <v>0.001571999999999463</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1678,25 +1678,25 @@
         <v>70.58036301493067</v>
       </c>
       <c r="P15" t="n">
-        <v>6.04926653855364</v>
+        <v>6.049266538553641</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.004773530937641325</v>
+        <v>0.004773530937640534</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04509077670992486</v>
+        <v>0.0450907767099091</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04025980184279804</v>
+        <v>0.04025980184278477</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02693077636663911</v>
+        <v>0.02693077636662996</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03508544879730544</v>
+        <v>0.03508544879730545</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02208260385973342</v>
+        <v>0.02208260385973367</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.005069800000001123</v>
+        <v>0.005389499999999714</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1730,13 +1730,13 @@
         <v>0.03571562546560766</v>
       </c>
       <c r="F16" t="n">
-        <v>9.95561194685807</v>
+        <v>9.955611946858067</v>
       </c>
       <c r="G16" t="n">
-        <v>92.44332919588304</v>
+        <v>92.443329195883</v>
       </c>
       <c r="H16" t="n">
-        <v>12.21769932442706</v>
+        <v>12.21769932442705</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>17.19004920600653</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0056408571393328</v>
+        <v>0.00564085713933216</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0788255341772464</v>
+        <v>0.07882553417721969</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1317861152841511</v>
+        <v>0.1317861152841072</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02094318878662408</v>
+        <v>0.02094318878661928</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04152082923557195</v>
+        <v>0.04152082923557207</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02332274160185858</v>
+        <v>0.02332274160186141</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004649800000009918</v>
+        <v>0.00361459999999969</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1818,7 +1818,7 @@
         <v>152.8278848953304</v>
       </c>
       <c r="H17" t="n">
-        <v>5.138705171387067</v>
+        <v>5.138705171387066</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1839,28 +1839,28 @@
         <v>4.419793767587765</v>
       </c>
       <c r="O17" t="n">
-        <v>64.66425202628014</v>
+        <v>64.66425202628012</v>
       </c>
       <c r="P17" t="n">
-        <v>4.412580940803224</v>
+        <v>4.412580940803225</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.004456631142312899</v>
+        <v>0.004456631142312479</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03345093058951491</v>
+        <v>0.03345093058950746</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02750737920212928</v>
+        <v>0.02750737920212373</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01869448528686232</v>
+        <v>0.01869448528685848</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04006631776166646</v>
+        <v>0.04006631776166648</v>
       </c>
       <c r="V17" t="n">
-        <v>0.008301562724302481</v>
+        <v>0.008301562724309684</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.006886799999989535</v>
+        <v>0.003841800000000006</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1894,13 +1894,13 @@
         <v>0.01957858247511486</v>
       </c>
       <c r="F18" t="n">
-        <v>9.918901309211142</v>
+        <v>9.91890130921114</v>
       </c>
       <c r="G18" t="n">
-        <v>40.12614707599387</v>
+        <v>40.12614707599386</v>
       </c>
       <c r="H18" t="n">
-        <v>9.136739334190537</v>
+        <v>9.136739334190539</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1927,22 +1927,22 @@
         <v>17.71851760850205</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005363691529112348</v>
+        <v>0.005363691529112301</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04431658327587599</v>
+        <v>0.04431658327587783</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04700482340864115</v>
+        <v>0.04700482340864359</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05343662117646084</v>
+        <v>0.05343662117646171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03404551413222604</v>
+        <v>0.03404551413222601</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06794589244753599</v>
+        <v>0.06794589244753552</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.00216700000000003</v>
+        <v>0.002008500000000524</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.9669712216182</v>
       </c>
       <c r="F19" t="n">
-        <v>9.9725909411505</v>
+        <v>9.972590941150495</v>
       </c>
       <c r="G19" t="n">
-        <v>52.9081903820307</v>
+        <v>52.90819038203068</v>
       </c>
       <c r="H19" t="n">
-        <v>9.38849362007484</v>
+        <v>9.388493620074836</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>35.65466032856141</v>
       </c>
       <c r="P19" t="n">
-        <v>17.41540305812659</v>
+        <v>17.41540305812658</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.005448238883298367</v>
+        <v>0.005448238883298366</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0468892603483896</v>
+        <v>0.04688926034839021</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05870375277286807</v>
+        <v>0.05870375277286903</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04219993936132044</v>
+        <v>0.04219993936132078</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04123271281946738</v>
+        <v>0.04123271281946746</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01432946667463645</v>
+        <v>0.01432946667463553</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002466400000002977</v>
+        <v>0.001862499999999656</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,7 +2058,7 @@
         <v>359.9350745369132</v>
       </c>
       <c r="F20" t="n">
-        <v>10.0869465921322</v>
+        <v>10.08694659213219</v>
       </c>
       <c r="G20" t="n">
         <v>117.0117212252882</v>
@@ -2091,22 +2091,22 @@
         <v>11.26561154809142</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.005483225130297469</v>
+        <v>0.005483225130298816</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07696970186546689</v>
+        <v>0.07696970186550624</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09526470448397269</v>
+        <v>0.09526470448402008</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04732511060498513</v>
+        <v>0.04732511060500919</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04090173244225019</v>
+        <v>0.04090173244225009</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06864507570404277</v>
+        <v>0.0686450757040425</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.005319200000002411</v>
+        <v>0.005546499999999455</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2140,7 +2140,7 @@
         <v>359.9983851381035</v>
       </c>
       <c r="F21" t="n">
-        <v>9.96689519883436</v>
+        <v>9.966895198834363</v>
       </c>
       <c r="G21" t="n">
         <v>17.51808209486342</v>
@@ -2173,22 +2173,22 @@
         <v>22.00298553195018</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.005475207502390313</v>
+        <v>0.005475207502390277</v>
       </c>
       <c r="R21" t="n">
-        <v>0.05795526907470865</v>
+        <v>0.05795526907470864</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03687864392932215</v>
+        <v>0.03687864392932291</v>
       </c>
       <c r="T21" t="n">
-        <v>0.09917042148918839</v>
+        <v>0.09917042148918867</v>
       </c>
       <c r="U21" t="n">
         <v>0.03858630594939601</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01204842794919208</v>
+        <v>0.01204842794919281</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002914799999999218</v>
+        <v>0.002160200000000501</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2255,22 +2255,22 @@
         <v>17.10792755345262</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00580628057815429</v>
+        <v>0.005806280578154589</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1057024430035493</v>
+        <v>0.1057024430035575</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1819718194797114</v>
+        <v>0.181971819479726</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06304682943273382</v>
+        <v>0.06304682943273827</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03773032423880993</v>
+        <v>0.03773032423880987</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05529354617662964</v>
+        <v>0.05529354617662932</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.00531720000000746</v>
+        <v>0.0039277000000002</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2337,19 +2337,19 @@
         <v>15.4057128887567</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.004472006982137418</v>
+        <v>0.004472006982137371</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05586762177704875</v>
+        <v>0.05586762177704856</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01821210837391561</v>
+        <v>0.01821210837391529</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09144032937779656</v>
+        <v>0.09144032937779525</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04052216414413317</v>
+        <v>0.04052216414413315</v>
       </c>
       <c r="V23" t="n">
         <v>0.07759044150386683</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.004112300000002733</v>
+        <v>0.001517099999999161</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2419,22 +2419,22 @@
         <v>17.50761542017423</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.00538137719345147</v>
+        <v>0.005381377193451616</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04427331637894125</v>
+        <v>0.04427331637894021</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04370877543852908</v>
+        <v>0.04370877543852959</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05568216016017869</v>
+        <v>0.05568216016018066</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04410338962716664</v>
+        <v>0.04410338962716671</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02238431848965057</v>
+        <v>0.02238431848965023</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002383000000008906</v>
+        <v>0.001669800000000166</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,13 +2468,13 @@
         <v>359.9938032818055</v>
       </c>
       <c r="F25" t="n">
-        <v>9.96407418844939</v>
+        <v>9.964074188449379</v>
       </c>
       <c r="G25" t="n">
         <v>93.12022854482092</v>
       </c>
       <c r="H25" t="n">
-        <v>14.30340292619065</v>
+        <v>14.30340292619064</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2495,28 +2495,28 @@
         <v>19.47923218856673</v>
       </c>
       <c r="O25" t="n">
-        <v>70.69422428570223</v>
+        <v>70.69422428570225</v>
       </c>
       <c r="P25" t="n">
-        <v>19.39885832808375</v>
+        <v>19.39885832808374</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.005904568617081388</v>
+        <v>0.005904568617081726</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09379359104814421</v>
+        <v>0.09379359104816337</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1744348901349912</v>
+        <v>0.1744348901350255</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02723498830996936</v>
+        <v>0.02723498830997435</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0366428668688964</v>
+        <v>0.03664286686889642</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0232851145361006</v>
+        <v>0.02328511453611078</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004704500000002554</v>
+        <v>0.003444599999999909</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2550,7 +2550,7 @@
         <v>359.9893790378359</v>
       </c>
       <c r="F26" t="n">
-        <v>9.99403343912325</v>
+        <v>9.994033439123248</v>
       </c>
       <c r="G26" t="n">
         <v>172.7895699335814</v>
@@ -2580,25 +2580,25 @@
         <v>154.9849465504293</v>
       </c>
       <c r="P26" t="n">
-        <v>6.819980056327756</v>
+        <v>6.819980056327758</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.002046339231920163</v>
+        <v>0.002046339231920169</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02188901647109431</v>
+        <v>0.02188901647110301</v>
       </c>
       <c r="S26" t="n">
-        <v>0.008142412070960635</v>
+        <v>0.008142412070963419</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03017980085390801</v>
+        <v>0.03017980085392003</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03895035392515779</v>
+        <v>0.03895035392515775</v>
       </c>
       <c r="V26" t="n">
-        <v>0.003994953703671889</v>
+        <v>0.003994953703671455</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.01182779999999184</v>
+        <v>0.004847800000000291</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2632,13 +2632,13 @@
         <v>0.02270757081163254</v>
       </c>
       <c r="F27" t="n">
-        <v>9.976648973170718</v>
+        <v>9.976648973170715</v>
       </c>
       <c r="G27" t="n">
         <v>156.6752897996666</v>
       </c>
       <c r="H27" t="n">
-        <v>9.95188530426455</v>
+        <v>9.951885304264549</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>121.4204395890845</v>
       </c>
       <c r="P27" t="n">
-        <v>6.917142193896732</v>
+        <v>6.917142193896729</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.00284425278637364</v>
+        <v>0.002844252786373335</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05494153132294134</v>
+        <v>0.0549415313229073</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03645909216705252</v>
+        <v>0.03645909216703022</v>
       </c>
       <c r="T27" t="n">
-        <v>0.06519347170835529</v>
+        <v>0.0651934717083149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04276082357156809</v>
+        <v>0.04276082357156803</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02121461053959124</v>
+        <v>0.02121461053959232</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.00940370000000712</v>
+        <v>0.006613399999999992</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2714,13 +2714,13 @@
         <v>0.01282160613569316</v>
       </c>
       <c r="F28" t="n">
-        <v>10.02259946023603</v>
+        <v>10.02259946023604</v>
       </c>
       <c r="G28" t="n">
-        <v>55.54725210250923</v>
+        <v>55.54725210250924</v>
       </c>
       <c r="H28" t="n">
-        <v>9.224824862373309</v>
+        <v>9.224824862373316</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>37.00175798249183</v>
       </c>
       <c r="P28" t="n">
-        <v>17.1154735525101</v>
+        <v>17.11547355251011</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.005445687016329555</v>
+        <v>0.005445687016329494</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04722354464470571</v>
+        <v>0.04722354464470543</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05972200763138635</v>
+        <v>0.05972200763138522</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0396079954517595</v>
+        <v>0.0396079954517588</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03840349936033662</v>
+        <v>0.03840349936033666</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01127293640809688</v>
+        <v>0.01127293640809634</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002418000000005804</v>
+        <v>0.00206180000000078</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,10 +2796,10 @@
         <v>359.9606014997402</v>
       </c>
       <c r="F29" t="n">
-        <v>9.997893404858795</v>
+        <v>9.997893404858798</v>
       </c>
       <c r="G29" t="n">
-        <v>76.62183990179878</v>
+        <v>76.62183990179877</v>
       </c>
       <c r="H29" t="n">
         <v>12.79727312389785</v>
@@ -2826,25 +2826,25 @@
         <v>55.82255418946862</v>
       </c>
       <c r="P29" t="n">
-        <v>19.46519352038463</v>
+        <v>19.46519352038464</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.005768895441376059</v>
+        <v>0.005768895441376153</v>
       </c>
       <c r="R29" t="n">
-        <v>0.06936881942992069</v>
+        <v>0.06936881942992605</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1186615667679245</v>
+        <v>0.1186615667679334</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02247354973700458</v>
+        <v>0.02247354973700511</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04141001564982651</v>
+        <v>0.04141001564982655</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01012865976162484</v>
+        <v>0.01012865976162714</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003729800000002115</v>
+        <v>0.002428899999999956</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2878,13 +2878,13 @@
         <v>359.9880406366943</v>
       </c>
       <c r="F30" t="n">
-        <v>10.03423467225209</v>
+        <v>10.03423467225208</v>
       </c>
       <c r="G30" t="n">
         <v>131.2005609527098</v>
       </c>
       <c r="H30" t="n">
-        <v>9.786591195555657</v>
+        <v>9.786591195555642</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>9.961999912823932</v>
       </c>
       <c r="O30" t="n">
-        <v>91.81943745204732</v>
+        <v>91.81943745204728</v>
       </c>
       <c r="P30" t="n">
-        <v>10.0096229055831</v>
+        <v>10.00962290558309</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.005463538089224968</v>
+        <v>0.005463538089221697</v>
       </c>
       <c r="R30" t="n">
-        <v>0.100067633568457</v>
+        <v>0.1000676335683606</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1101023897429958</v>
+        <v>0.1101023897428902</v>
       </c>
       <c r="T30" t="n">
-        <v>0.08826937073292784</v>
+        <v>0.08826937073284288</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03832543939390982</v>
+        <v>0.03832543939390974</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0243436918203682</v>
+        <v>0.02434369182034856</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.008491800000001604</v>
+        <v>0.004950599999999916</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -2960,13 +2960,13 @@
         <v>359.9745418381056</v>
       </c>
       <c r="F31" t="n">
-        <v>10.07632138329622</v>
+        <v>10.07632138329623</v>
       </c>
       <c r="G31" t="n">
         <v>155.2607869475583</v>
       </c>
       <c r="H31" t="n">
-        <v>6.495118479985471</v>
+        <v>6.495118479985475</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2990,25 +2990,25 @@
         <v>85.0800170009738</v>
       </c>
       <c r="P31" t="n">
-        <v>4.444112401011971</v>
+        <v>4.444112401011973</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.005208397305179162</v>
+        <v>0.005208397305177749</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06198771512846503</v>
+        <v>0.06198771512843782</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04435156217011312</v>
+        <v>0.04435156217009444</v>
       </c>
       <c r="T31" t="n">
-        <v>0.04866567202267746</v>
+        <v>0.0486656720226561</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04023118028390701</v>
+        <v>0.04023118028390697</v>
       </c>
       <c r="V31" t="n">
-        <v>0.05853848148839256</v>
+        <v>0.0585384814883953</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.005538500000000113</v>
+        <v>0.004150600000000004</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3042,13 +3042,13 @@
         <v>0.01452121473713469</v>
       </c>
       <c r="F32" t="n">
-        <v>9.958758601148737</v>
+        <v>9.958758601148739</v>
       </c>
       <c r="G32" t="n">
         <v>115.93514097624</v>
       </c>
       <c r="H32" t="n">
-        <v>7.521057860774305</v>
+        <v>7.521057860774308</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3069,28 +3069,28 @@
         <v>9.94082687493656</v>
       </c>
       <c r="O32" t="n">
-        <v>69.92307477021222</v>
+        <v>69.92307477021221</v>
       </c>
       <c r="P32" t="n">
         <v>9.890319250875661</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.005079132077218405</v>
+        <v>0.005079132077218522</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05759730040024642</v>
+        <v>0.05759730040024823</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06662087474334023</v>
+        <v>0.06662087474334248</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0290868004827146</v>
+        <v>0.0290868004827154</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03981744976111307</v>
+        <v>0.03981744976111323</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02881842492647555</v>
+        <v>0.02881842492647467</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.005047000000004687</v>
+        <v>0.003973799999999805</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3121,16 +3121,16 @@
         <v>14.497266798228</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03245613162772833</v>
+        <v>0.03245613162771561</v>
       </c>
       <c r="F33" t="n">
-        <v>9.957164929738395</v>
+        <v>9.957164929738397</v>
       </c>
       <c r="G33" t="n">
-        <v>51.37645117107548</v>
+        <v>51.37645117107549</v>
       </c>
       <c r="H33" t="n">
-        <v>14.44860394384085</v>
+        <v>14.44860394384086</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3157,22 +3157,22 @@
         <v>23.38040629149697</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005929330839900666</v>
+        <v>0.005929330839900623</v>
       </c>
       <c r="R33" t="n">
-        <v>0.06224692540732533</v>
+        <v>0.06224692540732476</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0984306738894289</v>
+        <v>0.09843067388942771</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06354085539221281</v>
+        <v>0.06354085539221223</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04104185016200664</v>
+        <v>0.04104185016200665</v>
       </c>
       <c r="V33" t="n">
-        <v>0.02584718478967338</v>
+        <v>0.0258471847896647</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.00241730000000473</v>
+        <v>0.001823100000000188</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>154.4131227180868</v>
       </c>
       <c r="H34" t="n">
-        <v>7.553897649452276</v>
+        <v>7.553897649452277</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3233,28 +3233,28 @@
         <v>5.067646835573846</v>
       </c>
       <c r="O34" t="n">
-        <v>98.10546878316461</v>
+        <v>98.10546878316467</v>
       </c>
       <c r="P34" t="n">
-        <v>5.128255228319597</v>
+        <v>5.128255228319599</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.005406307278662819</v>
+        <v>0.005406307278664637</v>
       </c>
       <c r="R34" t="n">
-        <v>0.08960761846552005</v>
+        <v>0.08960761846556828</v>
       </c>
       <c r="S34" t="n">
-        <v>0.06203147135317238</v>
+        <v>0.06203147135320466</v>
       </c>
       <c r="T34" t="n">
-        <v>0.08249592808487262</v>
+        <v>0.08249592808491708</v>
       </c>
       <c r="U34" t="n">
-        <v>0.040356783054603</v>
+        <v>0.04035678305460304</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05780860052483396</v>
+        <v>0.05780860052482063</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.006492600000001403</v>
+        <v>0.006452799999999925</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3285,7 +3285,7 @@
         <v>8.399705052609546</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06211713676069187</v>
+        <v>0.06211713676070459</v>
       </c>
       <c r="F35" t="n">
         <v>9.997373979464795</v>
@@ -3294,7 +3294,7 @@
         <v>44.86536678771431</v>
       </c>
       <c r="H35" t="n">
-        <v>8.289299944364108</v>
+        <v>8.289299944364107</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3321,22 +3321,22 @@
         <v>16.5974286806815</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.005313117362881839</v>
+        <v>0.005313117362881962</v>
       </c>
       <c r="R35" t="n">
-        <v>0.04281508862763789</v>
+        <v>0.0428150886276371</v>
       </c>
       <c r="S35" t="n">
-        <v>0.04608916780091831</v>
+        <v>0.04608916780091895</v>
       </c>
       <c r="T35" t="n">
-        <v>0.04698814563635907</v>
+        <v>0.04698814563636072</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0384275534175363</v>
+        <v>0.03842755341753625</v>
       </c>
       <c r="V35" t="n">
-        <v>0.05051128338918373</v>
+        <v>0.05051128338918426</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.004347499999994398</v>
+        <v>0.00202789999999986</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3403,22 +3403,22 @@
         <v>22.25094258010137</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.005074369688830675</v>
+        <v>0.005074369688830639</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0800634276477059</v>
+        <v>0.08006342764770595</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02468925655300196</v>
+        <v>0.02468925655300172</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1388953876324892</v>
+        <v>0.1388953876324873</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03821064963388258</v>
+        <v>0.03821064963388249</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03335802756547311</v>
+        <v>0.03335802756547472</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002010600000005525</v>
+        <v>0.001485999999999876</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3458,7 +3458,7 @@
         <v>82.58960028378364</v>
       </c>
       <c r="H37" t="n">
-        <v>6.722073075585494</v>
+        <v>6.722073075585495</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,28 +3479,28 @@
         <v>12.44155687331505</v>
       </c>
       <c r="O37" t="n">
-        <v>47.34036756537002</v>
+        <v>47.34036756537001</v>
       </c>
       <c r="P37" t="n">
         <v>12.46526358279782</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.005098442854791174</v>
+        <v>0.005098442854791167</v>
       </c>
       <c r="R37" t="n">
-        <v>0.04277666411337385</v>
+        <v>0.04277666411337419</v>
       </c>
       <c r="S37" t="n">
-        <v>0.05197362116793089</v>
+        <v>0.05197362116793103</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01810829915311592</v>
+        <v>0.01810829915311599</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04173728279338668</v>
+        <v>0.04173728279338672</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0291660459284168</v>
+        <v>0.02916604592841737</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.004748300000002814</v>
+        <v>0.00273240000000019</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3534,13 +3534,13 @@
         <v>0.04694930508460027</v>
       </c>
       <c r="F38" t="n">
-        <v>9.809293084875694</v>
+        <v>9.809293084875693</v>
       </c>
       <c r="G38" t="n">
         <v>131.1986507160664</v>
       </c>
       <c r="H38" t="n">
-        <v>9.943206335295116</v>
+        <v>9.943206335295113</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>93.75314219692883</v>
       </c>
       <c r="P38" t="n">
-        <v>10.17820603999259</v>
+        <v>10.17820603999258</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.005187353141756047</v>
+        <v>0.005187353141757047</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09894259023658865</v>
+        <v>0.0989425902366203</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1115888036746014</v>
+        <v>0.111588803674637</v>
       </c>
       <c r="T38" t="n">
-        <v>0.09075523591870983</v>
+        <v>0.09075523591873881</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04404114623002795</v>
+        <v>0.04404114623002803</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1097758174275365</v>
+        <v>0.109775817427538</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.006248800000008714</v>
+        <v>0.004752399999999213</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3622,7 +3622,7 @@
         <v>170.0696158624335</v>
       </c>
       <c r="H39" t="n">
-        <v>8.524500172525492</v>
+        <v>8.524500172525491</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,25 +3646,25 @@
         <v>132.9209305249792</v>
       </c>
       <c r="P39" t="n">
-        <v>4.009418422485386</v>
+        <v>4.009418422485385</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.002253909597966688</v>
+        <v>0.002253909597966697</v>
       </c>
       <c r="R39" t="n">
-        <v>0.03568109901864398</v>
+        <v>0.03568109901864815</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01414649377283997</v>
+        <v>0.0141464937728416</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04006331977523064</v>
+        <v>0.04006331977523533</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03877795178795335</v>
+        <v>0.03877795178795339</v>
       </c>
       <c r="V39" t="n">
-        <v>0.03413936256892178</v>
+        <v>0.03413936256890883</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.00594780000000128</v>
+        <v>0.006199900000000369</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3725,28 +3725,28 @@
         <v>20.73148308181667</v>
       </c>
       <c r="O40" t="n">
-        <v>51.03360722827335</v>
+        <v>51.03360722827334</v>
       </c>
       <c r="P40" t="n">
         <v>20.84404456393107</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.005865496957532765</v>
+        <v>0.005865496957532604</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06780930054211821</v>
+        <v>0.06780930054211243</v>
       </c>
       <c r="S40" t="n">
-        <v>0.116071115707581</v>
+        <v>0.1160711157075706</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03415724572389377</v>
+        <v>0.03415724572389175</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04249534128848607</v>
+        <v>0.04249534128848604</v>
       </c>
       <c r="V40" t="n">
-        <v>0.03116681290113249</v>
+        <v>0.03116681290112567</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003098899999997684</v>
+        <v>0.002543300000000137</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3780,7 +3780,7 @@
         <v>359.9919015415111</v>
       </c>
       <c r="F41" t="n">
-        <v>10.0001423920394</v>
+        <v>10.00014239203941</v>
       </c>
       <c r="G41" t="n">
         <v>98.43068222281239</v>
@@ -3810,25 +3810,25 @@
         <v>72.20176976747575</v>
       </c>
       <c r="P41" t="n">
-        <v>16.91422507615596</v>
+        <v>16.91422507615597</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.005755140723872154</v>
+        <v>0.005755140723870722</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0881861087589732</v>
+        <v>0.08818610875892602</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1473982427089547</v>
+        <v>0.1473982427088754</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03420845610191382</v>
+        <v>0.03420845610189748</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04183527709122534</v>
+        <v>0.04183527709122543</v>
       </c>
       <c r="V41" t="n">
-        <v>0.003553928163641176</v>
+        <v>0.003553928163643289</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004706799999993905</v>
+        <v>0.005873400000000473</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3865,10 +3865,10 @@
         <v>10.01751312998165</v>
       </c>
       <c r="G42" t="n">
-        <v>73.05200992909863</v>
+        <v>73.05200992909865</v>
       </c>
       <c r="H42" t="n">
-        <v>3.699855929917604</v>
+        <v>3.699855929917603</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>31.91589627090701</v>
       </c>
       <c r="P42" t="n">
-        <v>10.24401404101699</v>
+        <v>10.24401404101698</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.004676318585785988</v>
+        <v>0.004676318585785915</v>
       </c>
       <c r="R42" t="n">
-        <v>0.02983197833058174</v>
+        <v>0.02983197833058114</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02829616396415175</v>
+        <v>0.02829616396415055</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02714915237004823</v>
+        <v>0.02714915237004787</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03874758842202059</v>
+        <v>0.03874758842202037</v>
       </c>
       <c r="V42" t="n">
-        <v>0.04535866644774092</v>
+        <v>0.04535866644773871</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002200699999988842</v>
+        <v>0.00166730000000026</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>0.05149384283275153</v>
       </c>
       <c r="F43" t="n">
-        <v>9.990905990552854</v>
+        <v>9.99090599055285</v>
       </c>
       <c r="G43" t="n">
-        <v>45.5295470966849</v>
+        <v>45.52954709668487</v>
       </c>
       <c r="H43" t="n">
-        <v>3.467160981947772</v>
+        <v>3.467160981947774</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>11.09403816385187</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.004567458044745693</v>
+        <v>0.004567458044745737</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03081156580319592</v>
+        <v>0.03081156580319624</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02287221405771969</v>
+        <v>0.02287221405772033</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04081850397780486</v>
+        <v>0.04081850397780533</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04005413952303609</v>
+        <v>0.04005413952303608</v>
       </c>
       <c r="V43" t="n">
-        <v>0.09203773299905738</v>
+        <v>0.0920377329990551</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002179499999996892</v>
+        <v>0.001653100000000407</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4023,7 +4023,7 @@
         <v>14.40857167691899</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04512093418378183</v>
+        <v>0.04512093418379456</v>
       </c>
       <c r="F44" t="n">
         <v>10.02197379678786</v>
@@ -4059,22 +4059,22 @@
         <v>22.11481142401705</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.00590489890764819</v>
+        <v>0.005904898907647727</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07062466892456326</v>
+        <v>0.07062466892454668</v>
       </c>
       <c r="S44" t="n">
-        <v>0.125924353832134</v>
+        <v>0.1259243538321025</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03975539942413457</v>
+        <v>0.0397553994241269</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03750767361749059</v>
+        <v>0.0375076736174906</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01551869967717008</v>
+        <v>0.01551869967717096</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003115699999995059</v>
+        <v>0.002504000000000062</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4141,22 +4141,22 @@
         <v>19.75548284647619</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.005320088528925179</v>
+        <v>0.0053200885289251</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05123610685147938</v>
+        <v>0.05123610685147883</v>
       </c>
       <c r="S45" t="n">
-        <v>0.03489143549657954</v>
+        <v>0.03489143549657832</v>
       </c>
       <c r="T45" t="n">
-        <v>0.08356176101699145</v>
+        <v>0.08356176101698912</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03912400125528056</v>
+        <v>0.03912400125528043</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0194041342691545</v>
+        <v>0.01940413426915377</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.00217999999999563</v>
+        <v>0.001841899999999619</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4196,7 +4196,7 @@
         <v>150.260959399973</v>
       </c>
       <c r="H46" t="n">
-        <v>4.289294998924658</v>
+        <v>4.289294998924659</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4217,28 +4217,28 @@
         <v>4.733318900759217</v>
       </c>
       <c r="O46" t="n">
-        <v>51.52986914914224</v>
+        <v>51.52986914914226</v>
       </c>
       <c r="P46" t="n">
         <v>4.758132977426464</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.004248310618025274</v>
+        <v>0.004248310618025303</v>
       </c>
       <c r="R46" t="n">
-        <v>0.02512102316316888</v>
+        <v>0.02512102316317033</v>
       </c>
       <c r="S46" t="n">
-        <v>0.02224895129866138</v>
+        <v>0.02224895129866196</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01217346301554673</v>
+        <v>0.01217346301554753</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03992230026037465</v>
+        <v>0.03992230026037463</v>
       </c>
       <c r="V46" t="n">
-        <v>0.03680705020414372</v>
+        <v>0.03680705020415134</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004130900000006932</v>
+        <v>0.003061699999999945</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4272,7 +4272,7 @@
         <v>359.9926229579555</v>
       </c>
       <c r="F47" t="n">
-        <v>9.995900081142841</v>
+        <v>9.995900081142844</v>
       </c>
       <c r="G47" t="n">
         <v>178.0189307756666</v>
@@ -4302,25 +4302,25 @@
         <v>159.1885382263056</v>
       </c>
       <c r="P47" t="n">
-        <v>4.410519661963109</v>
+        <v>4.410519661963107</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.001958803794246906</v>
+        <v>0.001958803794246873</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01946951646475204</v>
+        <v>0.01946951646474559</v>
       </c>
       <c r="S47" t="n">
-        <v>0.004851045553326254</v>
+        <v>0.00485104555332515</v>
       </c>
       <c r="T47" t="n">
-        <v>0.02381598483896752</v>
+        <v>0.02381598483895964</v>
       </c>
       <c r="U47" t="n">
-        <v>0.03776827275013738</v>
+        <v>0.03776827275013737</v>
       </c>
       <c r="V47" t="n">
-        <v>0.003399832450445122</v>
+        <v>0.003399832450445793</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.006466599999995992</v>
+        <v>0.005224499999999743</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4351,16 +4351,16 @@
         <v>10.61800447263276</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02114116101116003</v>
+        <v>0.02114116101117275</v>
       </c>
       <c r="F48" t="n">
-        <v>9.925268334548853</v>
+        <v>9.925268334548841</v>
       </c>
       <c r="G48" t="n">
         <v>141.1475834316025</v>
       </c>
       <c r="H48" t="n">
-        <v>10.5054463103126</v>
+        <v>10.50544631031258</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4384,25 +4384,25 @@
         <v>105.4404794078486</v>
       </c>
       <c r="P48" t="n">
-        <v>9.422485019805674</v>
+        <v>9.422485019805661</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.004199327879934919</v>
+        <v>0.004199327879933085</v>
       </c>
       <c r="R48" t="n">
-        <v>0.08897239328668168</v>
+        <v>0.08897239328659068</v>
       </c>
       <c r="S48" t="n">
-        <v>0.08730058239155981</v>
+        <v>0.0873005823914718</v>
       </c>
       <c r="T48" t="n">
-        <v>0.09671990056060231</v>
+        <v>0.09671990056050339</v>
       </c>
       <c r="U48" t="n">
-        <v>0.04117794988697186</v>
+        <v>0.04117794988697179</v>
       </c>
       <c r="V48" t="n">
-        <v>0.04837023359626948</v>
+        <v>0.04837023359627542</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.007974200000006704</v>
+        <v>0.006218600000000407</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4436,10 +4436,10 @@
         <v>0.01276362243104846</v>
       </c>
       <c r="F49" t="n">
-        <v>10.02546888037221</v>
+        <v>10.02546888037222</v>
       </c>
       <c r="G49" t="n">
-        <v>20.44491507938318</v>
+        <v>20.44491507938319</v>
       </c>
       <c r="H49" t="n">
         <v>14.65533376532987</v>
@@ -4469,22 +4469,22 @@
         <v>24.98284939089516</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.005836999931686458</v>
+        <v>0.005836999931686461</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06202644609151627</v>
+        <v>0.06202644609151595</v>
       </c>
       <c r="S49" t="n">
-        <v>0.04890219604273913</v>
+        <v>0.0489021960427392</v>
       </c>
       <c r="T49" t="n">
-        <v>0.1077874008121702</v>
+        <v>0.1077874008121705</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0398295811438539</v>
+        <v>0.03982958114385391</v>
       </c>
       <c r="V49" t="n">
-        <v>0.01002915775787964</v>
+        <v>0.01002915775787994</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002163300000006529</v>
+        <v>0.001827999999999719</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,7 +4518,7 @@
         <v>359.9977447702747</v>
       </c>
       <c r="F50" t="n">
-        <v>9.909841852914408</v>
+        <v>9.909841852914409</v>
       </c>
       <c r="G50" t="n">
         <v>3.090280632015704</v>
@@ -4551,22 +4551,22 @@
         <v>23.8501281648624</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.004792290707366404</v>
+        <v>0.004792290707366437</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1054823816262897</v>
+        <v>0.1054823816262906</v>
       </c>
       <c r="S50" t="n">
-        <v>0.021123948316526</v>
+        <v>0.02112394831652608</v>
       </c>
       <c r="T50" t="n">
-        <v>0.1795297066361428</v>
+        <v>0.1795297066361453</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04074550044729994</v>
+        <v>0.04074550044729991</v>
       </c>
       <c r="V50" t="n">
-        <v>0.01867845025249917</v>
+        <v>0.01867845025249867</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003289899999998624</v>
+        <v>0.001409100000000052</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,13 +4600,13 @@
         <v>359.9907266720374</v>
       </c>
       <c r="F51" t="n">
-        <v>9.966395325724385</v>
+        <v>9.966395325724383</v>
       </c>
       <c r="G51" t="n">
         <v>53.99280995197661</v>
       </c>
       <c r="H51" t="n">
-        <v>5.961917218017996</v>
+        <v>5.961917218017995</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
         <v>13.5120365339658</v>
       </c>
       <c r="O51" t="n">
-        <v>31.0464172657536</v>
+        <v>31.04641726575361</v>
       </c>
       <c r="P51" t="n">
         <v>13.48812902573052</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.005013709421145577</v>
+        <v>0.005013709421145693</v>
       </c>
       <c r="R51" t="n">
-        <v>0.03643359934013813</v>
+        <v>0.03643359934013772</v>
       </c>
       <c r="S51" t="n">
-        <v>0.03733113872966905</v>
+        <v>0.03733113872966992</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0356087012933496</v>
+        <v>0.03560870129335074</v>
       </c>
       <c r="U51" t="n">
         <v>0.03642829337680507</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0151794506924263</v>
+        <v>0.01517945069241978</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.00218169999999418</v>
+        <v>0.002940199999999393</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4688,7 +4688,7 @@
         <v>88.95614763288106</v>
       </c>
       <c r="H52" t="n">
-        <v>5.756593786311269</v>
+        <v>5.75659378631127</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4709,28 +4709,28 @@
         <v>11.00547523311644</v>
       </c>
       <c r="O52" t="n">
-        <v>47.05761454387874</v>
+        <v>47.05761454387875</v>
       </c>
       <c r="P52" t="n">
         <v>11.03196012177111</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.004940977595902087</v>
+        <v>0.004940977595902147</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0388801348003499</v>
+        <v>0.0388801348003479</v>
       </c>
       <c r="S52" t="n">
-        <v>0.04455730379373425</v>
+        <v>0.044557303793733</v>
       </c>
       <c r="T52" t="n">
-        <v>0.01664901746038283</v>
+        <v>0.01664901746038311</v>
       </c>
       <c r="U52" t="n">
-        <v>0.03920934530217969</v>
+        <v>0.03920934530217954</v>
       </c>
       <c r="V52" t="n">
-        <v>0.01927766701349896</v>
+        <v>0.01927766701350673</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004238900000004264</v>
+        <v>0.002648799999999341</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4797,16 +4797,16 @@
         <v>7.048572564988563</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.004405531052755138</v>
+        <v>0.004405531052755189</v>
       </c>
       <c r="R53" t="n">
-        <v>0.02639891049463312</v>
+        <v>0.02639891049463335</v>
       </c>
       <c r="S53" t="n">
-        <v>0.02542244900258952</v>
+        <v>0.0254224490025894</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0148740075354821</v>
+        <v>0.01487400753548268</v>
       </c>
       <c r="U53" t="n">
         <v>0.03892670092961275</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003703500000000304</v>
+        <v>0.002582099999999699</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4876,25 +4876,25 @@
         <v>39.25341738792223</v>
       </c>
       <c r="P54" t="n">
-        <v>5.226483913432646</v>
+        <v>5.226483913432647</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.004095704619192849</v>
+        <v>0.00409570461919273</v>
       </c>
       <c r="R54" t="n">
-        <v>0.02051742776466849</v>
+        <v>0.02051742776466845</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01840312198974522</v>
+        <v>0.01840312198974463</v>
       </c>
       <c r="T54" t="n">
-        <v>0.01446712082969241</v>
+        <v>0.01446712082969226</v>
       </c>
       <c r="U54" t="n">
-        <v>0.03695454417159438</v>
+        <v>0.0369545441715944</v>
       </c>
       <c r="V54" t="n">
-        <v>0.05962017769711983</v>
+        <v>0.05962017769711977</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.005213400000002366</v>
+        <v>0.004456399999999583</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4961,19 +4961,19 @@
         <v>7.164819612437613</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.003350469664299676</v>
+        <v>0.003350469664299954</v>
       </c>
       <c r="R55" t="n">
-        <v>0.06923493881937338</v>
+        <v>0.06923493881938887</v>
       </c>
       <c r="S55" t="n">
-        <v>0.05128425836212668</v>
+        <v>0.05128425836213815</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0782924226491067</v>
+        <v>0.0782924226491242</v>
       </c>
       <c r="U55" t="n">
-        <v>0.04483459666853921</v>
+        <v>0.04483459666853923</v>
       </c>
       <c r="V55" t="n">
         <v>0.03919226872372276</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.006193999999993594</v>
+        <v>0.004729799999999784</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5010,13 +5010,13 @@
         <v>0.04583906704634124</v>
       </c>
       <c r="F56" t="n">
-        <v>9.940371453568227</v>
+        <v>9.940371453568224</v>
       </c>
       <c r="G56" t="n">
-        <v>75.68534514311118</v>
+        <v>75.68534514311119</v>
       </c>
       <c r="H56" t="n">
-        <v>7.26188666476715</v>
+        <v>7.261886664767147</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>45.43054892766636</v>
       </c>
       <c r="P56" t="n">
-        <v>13.50661239547361</v>
+        <v>13.5066123954736</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.005132391519206103</v>
+        <v>0.00513239151920594</v>
       </c>
       <c r="R56" t="n">
-        <v>0.04356893547190248</v>
+        <v>0.04356893547190092</v>
       </c>
       <c r="S56" t="n">
-        <v>0.05459469490336828</v>
+        <v>0.05459469490336528</v>
       </c>
       <c r="T56" t="n">
-        <v>0.02126224323858604</v>
+        <v>0.02126224323858539</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03932241558505429</v>
+        <v>0.03932241558505432</v>
       </c>
       <c r="V56" t="n">
-        <v>0.05522847778666159</v>
+        <v>0.05522847778666437</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002423000000007391</v>
+        <v>0.003092399999999884</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5125,16 +5125,16 @@
         <v>25.09647815749954</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.005752276726276716</v>
+        <v>0.005752276726276595</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0651695733943166</v>
+        <v>0.06516957339431721</v>
       </c>
       <c r="S57" t="n">
-        <v>0.04327142408802546</v>
+        <v>0.0432714240880248</v>
       </c>
       <c r="T57" t="n">
-        <v>0.1161545761955016</v>
+        <v>0.1161545761954984</v>
       </c>
       <c r="U57" t="n">
         <v>0.03909652505456992</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002197899999998754</v>
+        <v>0.002023299999999395</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5174,13 +5174,13 @@
         <v>0.004922622808568281</v>
       </c>
       <c r="F58" t="n">
-        <v>9.972343991761171</v>
+        <v>9.972343991761173</v>
       </c>
       <c r="G58" t="n">
         <v>177.2298572272114</v>
       </c>
       <c r="H58" t="n">
-        <v>6.974131919921786</v>
+        <v>6.974131919921787</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5201,28 +5201,28 @@
         <v>1.88002910171164</v>
       </c>
       <c r="O58" t="n">
-        <v>122.4823291407443</v>
+        <v>122.4823291407444</v>
       </c>
       <c r="P58" t="n">
-        <v>1.868014183145523</v>
+        <v>1.868014183145525</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.002150524678325755</v>
+        <v>0.002150524678325754</v>
       </c>
       <c r="R58" t="n">
         <v>0.02584290436239168</v>
       </c>
       <c r="S58" t="n">
-        <v>0.008261068211180774</v>
+        <v>0.008261068211180793</v>
       </c>
       <c r="T58" t="n">
         <v>0.0250355834389803</v>
       </c>
       <c r="U58" t="n">
-        <v>0.03828424514970732</v>
+        <v>0.03828424514970725</v>
       </c>
       <c r="V58" t="n">
-        <v>0.04475842799179332</v>
+        <v>0.04475842799180604</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.007523700000007238</v>
+        <v>0.004414399999999929</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5256,10 +5256,10 @@
         <v>359.9820308326339</v>
       </c>
       <c r="F59" t="n">
-        <v>9.929465239560344</v>
+        <v>9.929465239560342</v>
       </c>
       <c r="G59" t="n">
-        <v>15.54241370363753</v>
+        <v>15.54241370363752</v>
       </c>
       <c r="H59" t="n">
         <v>5.884199019818414</v>
@@ -5289,22 +5289,22 @@
         <v>14.44365961293181</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.004558087632401273</v>
+        <v>0.004558087632401166</v>
       </c>
       <c r="R59" t="n">
-        <v>0.04526569564031081</v>
+        <v>0.04526569564031058</v>
       </c>
       <c r="S59" t="n">
-        <v>0.02026157190182045</v>
+        <v>0.02026157190181985</v>
       </c>
       <c r="T59" t="n">
-        <v>0.07313909918506852</v>
+        <v>0.07313909918506607</v>
       </c>
       <c r="U59" t="n">
-        <v>0.04363551418317108</v>
+        <v>0.04363551418317119</v>
       </c>
       <c r="V59" t="n">
-        <v>0.0660635255789212</v>
+        <v>0.06606352557892192</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002154199999992557</v>
+        <v>0.001693600000000295</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5371,16 +5371,16 @@
         <v>15.35302712877671</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.005267725812734195</v>
+        <v>0.005267725812734155</v>
       </c>
       <c r="R60" t="n">
-        <v>0.04532601847667242</v>
+        <v>0.04532601847667277</v>
       </c>
       <c r="S60" t="n">
-        <v>0.05872777031585145</v>
+        <v>0.05872777031585118</v>
       </c>
       <c r="T60" t="n">
-        <v>0.02882222411548509</v>
+        <v>0.02882222411548477</v>
       </c>
       <c r="U60" t="n">
         <v>0.03761058635546684</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002523800000005849</v>
+        <v>0.001867800000000308</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>166.5305706321301</v>
       </c>
       <c r="H61" t="n">
-        <v>4.873202260080405</v>
+        <v>4.873202260080406</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5447,28 +5447,28 @@
         <v>3.059300117780022</v>
       </c>
       <c r="O61" t="n">
-        <v>56.71428969949677</v>
+        <v>56.71428969949678</v>
       </c>
       <c r="P61" t="n">
-        <v>3.033669127725403</v>
+        <v>3.033669127725402</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.004087796103959704</v>
+        <v>0.004087796103959836</v>
       </c>
       <c r="R61" t="n">
-        <v>0.02302854829274198</v>
+        <v>0.02302854829274299</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01863981651906244</v>
+        <v>0.01863981651906337</v>
       </c>
       <c r="T61" t="n">
-        <v>0.01198871583678082</v>
+        <v>0.01198871583678111</v>
       </c>
       <c r="U61" t="n">
-        <v>0.04015942085008303</v>
+        <v>0.04015942085008284</v>
       </c>
       <c r="V61" t="n">
-        <v>0.04237112272769659</v>
+        <v>0.04237112272768927</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004772900000006075</v>
+        <v>0.004975799999999531</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5505,10 +5505,10 @@
         <v>10.05069705906447</v>
       </c>
       <c r="G62" t="n">
-        <v>54.28598169778187</v>
+        <v>54.28598169778185</v>
       </c>
       <c r="H62" t="n">
-        <v>5.29788290239885</v>
+        <v>5.297882902398849</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5529,28 +5529,28 @@
         <v>12.72106643331113</v>
       </c>
       <c r="O62" t="n">
-        <v>29.58617808996607</v>
+        <v>29.58617808996605</v>
       </c>
       <c r="P62" t="n">
-        <v>12.81653179559429</v>
+        <v>12.81653179559428</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.004954989107059314</v>
+        <v>0.004954989107059478</v>
       </c>
       <c r="R62" t="n">
-        <v>0.03493851929458295</v>
+        <v>0.03493851929458235</v>
       </c>
       <c r="S62" t="n">
-        <v>0.03390553933310749</v>
+        <v>0.03390553933310849</v>
       </c>
       <c r="T62" t="n">
-        <v>0.03560982905419306</v>
+        <v>0.03560982905419449</v>
       </c>
       <c r="U62" t="n">
-        <v>0.04285538119687366</v>
+        <v>0.04285538119687356</v>
       </c>
       <c r="V62" t="n">
-        <v>0.05449961270019359</v>
+        <v>0.05449961270019134</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.00222719999999299</v>
+        <v>0.001782000000000394</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5617,19 +5617,19 @@
         <v>4.913489188893282</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.004524469825308569</v>
+        <v>0.004524469825308244</v>
       </c>
       <c r="R63" t="n">
-        <v>0.0352778647267246</v>
+        <v>0.03527786472671936</v>
       </c>
       <c r="S63" t="n">
-        <v>0.02986173727213755</v>
+        <v>0.02986173727213335</v>
       </c>
       <c r="T63" t="n">
-        <v>0.01940592536622462</v>
+        <v>0.01940592536622203</v>
       </c>
       <c r="U63" t="n">
-        <v>0.04124856482180342</v>
+        <v>0.04124856482180343</v>
       </c>
       <c r="V63" t="n">
         <v>0.02867924863736007</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.005088399999991111</v>
+        <v>0.003797300000000448</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5672,7 +5672,7 @@
         <v>6.126417114649499</v>
       </c>
       <c r="H64" t="n">
-        <v>8.785377383002499</v>
+        <v>8.785377383002498</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>7.295154537265419</v>
       </c>
       <c r="P64" t="n">
-        <v>18.10350263012551</v>
+        <v>18.1035026301255</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.004638821332113082</v>
+        <v>0.004638821332113048</v>
       </c>
       <c r="R64" t="n">
-        <v>0.07030228580819417</v>
+        <v>0.07030228580819396</v>
       </c>
       <c r="S64" t="n">
-        <v>0.01932082333190718</v>
+        <v>0.01932082333190702</v>
       </c>
       <c r="T64" t="n">
-        <v>0.117153333883903</v>
+        <v>0.1171533338839016</v>
       </c>
       <c r="U64" t="n">
-        <v>0.03575088842567729</v>
+        <v>0.03575088842567735</v>
       </c>
       <c r="V64" t="n">
-        <v>0.02824688205600531</v>
+        <v>0.02824688205600615</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002189999999998804</v>
+        <v>0.002555300000000038</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>99.75661185991081</v>
       </c>
       <c r="H65" t="n">
-        <v>7.791644110249186</v>
+        <v>7.791644110249185</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>11.86528034063046</v>
       </c>
       <c r="O65" t="n">
-        <v>60.66040377676039</v>
+        <v>60.6604037767604</v>
       </c>
       <c r="P65" t="n">
         <v>11.91080745667791</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.005178717256044283</v>
+        <v>0.005178717256044379</v>
       </c>
       <c r="R65" t="n">
-        <v>0.05326855933034079</v>
+        <v>0.05326855933034334</v>
       </c>
       <c r="S65" t="n">
-        <v>0.06751595827248902</v>
+        <v>0.06751595827249227</v>
       </c>
       <c r="T65" t="n">
-        <v>0.01718744504115742</v>
+        <v>0.01718744504115781</v>
       </c>
       <c r="U65" t="n">
-        <v>0.03837245161000834</v>
+        <v>0.03837245161000827</v>
       </c>
       <c r="V65" t="n">
-        <v>0.01990745588261093</v>
+        <v>0.01990745588261696</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004433599999998705</v>
+        <v>0.003442200000000284</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5830,13 +5830,13 @@
         <v>0.05272269388549249</v>
       </c>
       <c r="F66" t="n">
-        <v>10.00635137093777</v>
+        <v>10.00635137093778</v>
       </c>
       <c r="G66" t="n">
         <v>68.28951300210245</v>
       </c>
       <c r="H66" t="n">
-        <v>9.781518869274556</v>
+        <v>9.781518869274562</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5857,28 +5857,28 @@
         <v>16.86218162216168</v>
       </c>
       <c r="O66" t="n">
-        <v>45.8488018420914</v>
+        <v>45.84880184209141</v>
       </c>
       <c r="P66" t="n">
-        <v>16.84291368928757</v>
+        <v>16.84291368928758</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.005459697560701119</v>
+        <v>0.005459697560701253</v>
       </c>
       <c r="R66" t="n">
-        <v>0.05243798561146449</v>
+        <v>0.05243798561146609</v>
       </c>
       <c r="S66" t="n">
-        <v>0.07415442422257616</v>
+        <v>0.07415442422257928</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02843071039744041</v>
+        <v>0.02843071039744148</v>
       </c>
       <c r="U66" t="n">
-        <v>0.04319318167296122</v>
+        <v>0.04319318167296126</v>
       </c>
       <c r="V66" t="n">
-        <v>0.009954770583974273</v>
+        <v>0.009954770583972213</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003330399999995848</v>
+        <v>0.003065599999999336</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,7 +5915,7 @@
         <v>9.992335628811187</v>
       </c>
       <c r="G67" t="n">
-        <v>39.21216456872101</v>
+        <v>39.212164568721</v>
       </c>
       <c r="H67" t="n">
         <v>3.375200467292834</v>
@@ -5945,19 +5945,19 @@
         <v>11.15807899789989</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.00450264491180347</v>
+        <v>0.004502644911803481</v>
       </c>
       <c r="R67" t="n">
-        <v>0.03168107127258474</v>
+        <v>0.03168107127258428</v>
       </c>
       <c r="S67" t="n">
-        <v>0.02119357981049216</v>
+        <v>0.02119357981049215</v>
       </c>
       <c r="T67" t="n">
         <v>0.04465059062760984</v>
       </c>
       <c r="U67" t="n">
-        <v>0.03968917287592115</v>
+        <v>0.03968917287592114</v>
       </c>
       <c r="V67" t="n">
         <v>0.009546103174174031</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.004789099999996438</v>
+        <v>0.001700500000000105</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5994,13 +5994,13 @@
         <v>359.9830621806689</v>
       </c>
       <c r="F68" t="n">
-        <v>9.974783474155617</v>
+        <v>9.974783474155613</v>
       </c>
       <c r="G68" t="n">
-        <v>27.75929831746198</v>
+        <v>27.75929831746195</v>
       </c>
       <c r="H68" t="n">
-        <v>4.569747407320255</v>
+        <v>4.569747407320254</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6021,28 +6021,28 @@
         <v>12.83113260813786</v>
       </c>
       <c r="O68" t="n">
-        <v>16.94978731533674</v>
+        <v>16.94978731533673</v>
       </c>
       <c r="P68" t="n">
         <v>12.76553715259807</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.004601400974701155</v>
+        <v>0.004601400974701237</v>
       </c>
       <c r="R68" t="n">
-        <v>0.03631153388294144</v>
+        <v>0.03631153388294141</v>
       </c>
       <c r="S68" t="n">
-        <v>0.02202238384203691</v>
+        <v>0.02202238384203753</v>
       </c>
       <c r="T68" t="n">
-        <v>0.05455774244659717</v>
+        <v>0.05455774244659846</v>
       </c>
       <c r="U68" t="n">
-        <v>0.03925294059471664</v>
+        <v>0.03925294059471652</v>
       </c>
       <c r="V68" t="n">
-        <v>0.03260883722666556</v>
+        <v>0.03260883722667456</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002361799999988534</v>
+        <v>0.00162460000000042</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,7 +6076,7 @@
         <v>0.05478771748725386</v>
       </c>
       <c r="F69" t="n">
-        <v>9.901947409986198</v>
+        <v>9.901947409986196</v>
       </c>
       <c r="G69" t="n">
         <v>98.19311564426921</v>
@@ -6103,28 +6103,28 @@
         <v>17.71985515776622</v>
       </c>
       <c r="O69" t="n">
-        <v>73.26572701662923</v>
+        <v>73.26572701662924</v>
       </c>
       <c r="P69" t="n">
         <v>17.50867499513438</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.005713957292090884</v>
+        <v>0.005713957292092432</v>
       </c>
       <c r="R69" t="n">
-        <v>0.09156222625230595</v>
+        <v>0.09156222625236946</v>
       </c>
       <c r="S69" t="n">
-        <v>0.159058312816323</v>
+        <v>0.1590583128164319</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0363774178574147</v>
+        <v>0.0363774178574383</v>
       </c>
       <c r="U69" t="n">
-        <v>0.03904415268163069</v>
+        <v>0.03904415268163077</v>
       </c>
       <c r="V69" t="n">
-        <v>0.06470412701017926</v>
+        <v>0.06470412701017215</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.007276099999998564</v>
+        <v>0.005774600000000518</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6164,7 +6164,7 @@
         <v>46.71851098667121</v>
       </c>
       <c r="H70" t="n">
-        <v>3.508855858102026</v>
+        <v>3.508855858102027</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>11.09725910335366</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.00457441653895779</v>
+        <v>0.004574416538957855</v>
       </c>
       <c r="R70" t="n">
-        <v>0.03069278844292032</v>
+        <v>0.03069278844292029</v>
       </c>
       <c r="S70" t="n">
-        <v>0.02322713893357393</v>
+        <v>0.02322713893357401</v>
       </c>
       <c r="T70" t="n">
-        <v>0.04007236369144856</v>
+        <v>0.04007236369144929</v>
       </c>
       <c r="U70" t="n">
-        <v>0.0402544395792573</v>
+        <v>0.04025443957925731</v>
       </c>
       <c r="V70" t="n">
-        <v>0.01501682794093004</v>
+        <v>0.01501682794092946</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003659999999996444</v>
+        <v>0.001671500000000492</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,7 +6240,7 @@
         <v>0.04420153192207738</v>
       </c>
       <c r="F71" t="n">
-        <v>9.875893011730929</v>
+        <v>9.87589301173093</v>
       </c>
       <c r="G71" t="n">
         <v>53.17461895592881</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="N71" t="n">
         <v>21.2511977384674</v>
@@ -6273,22 +6273,22 @@
         <v>20.9299375894138</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.005704165768941646</v>
+        <v>0.005704165768941456</v>
       </c>
       <c r="R71" t="n">
-        <v>0.05615934116500396</v>
+        <v>0.05615934116499863</v>
       </c>
       <c r="S71" t="n">
-        <v>0.08337755283259064</v>
+        <v>0.08337755283258122</v>
       </c>
       <c r="T71" t="n">
-        <v>0.05192191828049954</v>
+        <v>0.05192191828049476</v>
       </c>
       <c r="U71" t="n">
-        <v>0.04182130365985501</v>
+        <v>0.04182130365985497</v>
       </c>
       <c r="V71" t="n">
-        <v>0.07946155873182842</v>
+        <v>0.07946155873182911</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003618000000003008</v>
+        <v>0.00183320000000009</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,7 +6322,7 @@
         <v>359.9948667462737</v>
       </c>
       <c r="F72" t="n">
-        <v>10.01413348158608</v>
+        <v>10.01413348158609</v>
       </c>
       <c r="G72" t="n">
         <v>166.9228470964896</v>
@@ -6355,19 +6355,19 @@
         <v>9.669545473190668</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.002212359147918383</v>
+        <v>0.002212359147918382</v>
       </c>
       <c r="R72" t="n">
-        <v>0.02492898015570666</v>
+        <v>0.02492898015570393</v>
       </c>
       <c r="S72" t="n">
-        <v>0.0139271190640016</v>
+        <v>0.01392711906400012</v>
       </c>
       <c r="T72" t="n">
-        <v>0.03887290402541702</v>
+        <v>0.03887290402541274</v>
       </c>
       <c r="U72" t="n">
-        <v>0.04049869507760222</v>
+        <v>0.04049869507760213</v>
       </c>
       <c r="V72" t="n">
         <v>0.01422022399477288</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.01086189999999476</v>
+        <v>0.005059200000000708</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6407,10 +6407,10 @@
         <v>10.03120925273487</v>
       </c>
       <c r="G73" t="n">
-        <v>33.53580653195765</v>
+        <v>33.53580653195764</v>
       </c>
       <c r="H73" t="n">
-        <v>7.59421058431393</v>
+        <v>7.594210584313931</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>16.24375348226038</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.005179637955781274</v>
+        <v>0.005179637955781227</v>
       </c>
       <c r="R73" t="n">
-        <v>0.04142497698120326</v>
+        <v>0.04142497698120293</v>
       </c>
       <c r="S73" t="n">
-        <v>0.03548855363124868</v>
+        <v>0.03548855363124814</v>
       </c>
       <c r="T73" t="n">
-        <v>0.05632297045349855</v>
+        <v>0.05632297045349754</v>
       </c>
       <c r="U73" t="n">
-        <v>0.03916773052293402</v>
+        <v>0.03916773052293403</v>
       </c>
       <c r="V73" t="n">
-        <v>0.02135745142633884</v>
+        <v>0.02135745142633891</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002680400000002692</v>
+        <v>0.001618499999999301</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6486,10 +6486,10 @@
         <v>359.9851006897724</v>
       </c>
       <c r="F74" t="n">
-        <v>9.984309239115802</v>
+        <v>9.984309239115799</v>
       </c>
       <c r="G74" t="n">
-        <v>19.19092133810787</v>
+        <v>19.19092133810785</v>
       </c>
       <c r="H74" t="n">
         <v>11.26384070100001</v>
@@ -6519,22 +6519,22 @@
         <v>20.90066389749136</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.005413786448023577</v>
+        <v>0.00541378644802356</v>
       </c>
       <c r="R74" t="n">
-        <v>0.05451785343431267</v>
+        <v>0.05451785343431279</v>
       </c>
       <c r="S74" t="n">
-        <v>0.03621359241029858</v>
+        <v>0.03621359241029853</v>
       </c>
       <c r="T74" t="n">
-        <v>0.09098051726038899</v>
+        <v>0.09098051726038855</v>
       </c>
       <c r="U74" t="n">
-        <v>0.04037000181716559</v>
+        <v>0.04037000181716551</v>
       </c>
       <c r="V74" t="n">
-        <v>0.01612874949542542</v>
+        <v>0.01612874949542553</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003315299999997023</v>
+        <v>0.002948400000000184</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6574,7 +6574,7 @@
         <v>115.7027883778144</v>
       </c>
       <c r="H75" t="n">
-        <v>9.618264976091799</v>
+        <v>9.618264976091805</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>11.83063023971672</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.005513590161426332</v>
+        <v>0.005513590161426202</v>
       </c>
       <c r="R75" t="n">
-        <v>0.080628746006535</v>
+        <v>0.08062874600653322</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1029180671713289</v>
+        <v>0.1029180671713263</v>
       </c>
       <c r="T75" t="n">
-        <v>0.04962431147735974</v>
+        <v>0.04962431147735878</v>
       </c>
       <c r="U75" t="n">
-        <v>0.0364195942910917</v>
+        <v>0.0364195942910916</v>
       </c>
       <c r="V75" t="n">
-        <v>0.07535463912616201</v>
+        <v>0.07535463912616368</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00544039999999768</v>
+        <v>0.004448400000000241</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6683,19 +6683,19 @@
         <v>21.78455801817215</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.005746433340853147</v>
+        <v>0.005746433340853114</v>
       </c>
       <c r="R76" t="n">
-        <v>0.05317723825636587</v>
+        <v>0.05317723825636465</v>
       </c>
       <c r="S76" t="n">
-        <v>0.06132225634357068</v>
+        <v>0.06132225634356825</v>
       </c>
       <c r="T76" t="n">
-        <v>0.07138999250519705</v>
+        <v>0.07138999250519497</v>
       </c>
       <c r="U76" t="n">
-        <v>0.03642428791227107</v>
+        <v>0.03642428791227106</v>
       </c>
       <c r="V76" t="n">
         <v>0.006604426715722826</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002469499999989466</v>
+        <v>0.001799000000000106</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6738,7 +6738,7 @@
         <v>102.3308426764783</v>
       </c>
       <c r="H77" t="n">
-        <v>3.838826277745838</v>
+        <v>3.838826277745837</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>41.28695186232785</v>
       </c>
       <c r="P77" t="n">
-        <v>8.584270118033512</v>
+        <v>8.58427011803351</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.004619830732177709</v>
+        <v>0.004619830732177811</v>
       </c>
       <c r="R77" t="n">
-        <v>0.02975833348587461</v>
+        <v>0.02975833348587471</v>
       </c>
       <c r="S77" t="n">
-        <v>0.02980975419145633</v>
+        <v>0.02980975419145697</v>
       </c>
       <c r="T77" t="n">
-        <v>0.01726861278944162</v>
+        <v>0.01726861278944186</v>
       </c>
       <c r="U77" t="n">
-        <v>0.03835508233335178</v>
+        <v>0.03835508233335189</v>
       </c>
       <c r="V77" t="n">
-        <v>0.06014072728521238</v>
+        <v>0.06014072728521174</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002868199999994658</v>
+        <v>0.002173499999999606</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6817,10 +6817,10 @@
         <v>10.00635262480721</v>
       </c>
       <c r="G78" t="n">
-        <v>56.0067404104991</v>
+        <v>56.00674041049911</v>
       </c>
       <c r="H78" t="n">
-        <v>12.83826450541589</v>
+        <v>12.8382645054159</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6847,22 +6847,22 @@
         <v>21.22385962825998</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.005810490985324245</v>
+        <v>0.005810490985324071</v>
       </c>
       <c r="R78" t="n">
-        <v>0.05913153263810219</v>
+        <v>0.05913153263809719</v>
       </c>
       <c r="S78" t="n">
-        <v>0.09054203017043722</v>
+        <v>0.09054203017042865</v>
       </c>
       <c r="T78" t="n">
-        <v>0.05038643738566997</v>
+        <v>0.05038643738566618</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0381438415698759</v>
+        <v>0.03814384156987594</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01232397969689736</v>
+        <v>0.01232397969689896</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002411499999993794</v>
+        <v>0.001882099999999554</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>0.004973970968429864</v>
       </c>
       <c r="F79" t="n">
-        <v>9.960599905157149</v>
+        <v>9.960599905157151</v>
       </c>
       <c r="G79" t="n">
         <v>165.4637314907754</v>
@@ -6926,10 +6926,10 @@
         <v>138.9515415002288</v>
       </c>
       <c r="P79" t="n">
-        <v>6.669473704865151</v>
+        <v>6.669473704865149</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.002296732628305076</v>
+        <v>0.002296732628305078</v>
       </c>
       <c r="R79" t="n">
         <v>0.03226142466787636</v>
@@ -6941,10 +6941,10 @@
         <v>0.04193386692437136</v>
       </c>
       <c r="U79" t="n">
-        <v>0.03982831061076814</v>
+        <v>0.03982831061076815</v>
       </c>
       <c r="V79" t="n">
-        <v>0.023363571158335</v>
+        <v>0.02336357115833545</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.006122900000008258</v>
+        <v>0.005508200000000407</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7011,22 +7011,22 @@
         <v>20.9327889904012</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.005063714907942502</v>
+        <v>0.005063714907942551</v>
       </c>
       <c r="R80" t="n">
-        <v>0.07083834643662192</v>
+        <v>0.07083834643662229</v>
       </c>
       <c r="S80" t="n">
-        <v>0.02506797953584129</v>
+        <v>0.02506797953584122</v>
       </c>
       <c r="T80" t="n">
-        <v>0.1222516851744477</v>
+        <v>0.1222516851744487</v>
       </c>
       <c r="U80" t="n">
-        <v>0.04016492820523608</v>
+        <v>0.04016492820523605</v>
       </c>
       <c r="V80" t="n">
-        <v>0.02669585067578431</v>
+        <v>0.02669585067578442</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001889599999998381</v>
+        <v>0.001507499999999773</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7066,7 +7066,7 @@
         <v>89.95877394480142</v>
       </c>
       <c r="H81" t="n">
-        <v>8.682653695381669</v>
+        <v>8.682653695381667</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7087,28 +7087,28 @@
         <v>13.66352932901044</v>
       </c>
       <c r="O81" t="n">
-        <v>57.38328624504334</v>
+        <v>57.38328624504332</v>
       </c>
       <c r="P81" t="n">
         <v>13.74789841145518</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.005324343694520259</v>
+        <v>0.005324343694519893</v>
       </c>
       <c r="R81" t="n">
-        <v>0.05501292570651166</v>
+        <v>0.055012925706507</v>
       </c>
       <c r="S81" t="n">
-        <v>0.07520652214393908</v>
+        <v>0.07520652214393102</v>
       </c>
       <c r="T81" t="n">
-        <v>0.01491069539148126</v>
+        <v>0.01491069539148151</v>
       </c>
       <c r="U81" t="n">
-        <v>0.03777270967272681</v>
+        <v>0.03777270967272687</v>
       </c>
       <c r="V81" t="n">
-        <v>0.03708371335936275</v>
+        <v>0.03708371335936891</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003727900000001227</v>
+        <v>0.002863099999999896</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7142,13 +7142,13 @@
         <v>359.9842453097799</v>
       </c>
       <c r="F82" t="n">
-        <v>10.06122980058993</v>
+        <v>10.06122980058994</v>
       </c>
       <c r="G82" t="n">
         <v>94.09328178782469</v>
       </c>
       <c r="H82" t="n">
-        <v>11.46293974399826</v>
+        <v>11.46293974399827</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7175,22 +7175,22 @@
         <v>16.23042137658249</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.005643252933516914</v>
+        <v>0.00564325293351723</v>
       </c>
       <c r="R82" t="n">
-        <v>0.0757106284433188</v>
+        <v>0.07571062844332187</v>
       </c>
       <c r="S82" t="n">
-        <v>0.1199348878983608</v>
+        <v>0.1199348878983674</v>
       </c>
       <c r="T82" t="n">
-        <v>0.0216348901899308</v>
+        <v>0.02163489018993071</v>
       </c>
       <c r="U82" t="n">
-        <v>0.03816610073347351</v>
+        <v>0.03816610073347348</v>
       </c>
       <c r="V82" t="n">
-        <v>0.03892387110096455</v>
+        <v>0.03892387110096609</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004413999999997031</v>
+        <v>0.004877699999999763</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7230,7 +7230,7 @@
         <v>64.33559680920636</v>
       </c>
       <c r="H83" t="n">
-        <v>7.088490682641936</v>
+        <v>7.088490682641934</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7257,22 +7257,22 @@
         <v>14.22013248578194</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.005201399376020687</v>
+        <v>0.005201399376020836</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0416925839030613</v>
+        <v>0.04169258390306537</v>
       </c>
       <c r="S83" t="n">
-        <v>0.04903649658724766</v>
+        <v>0.04903649658725281</v>
       </c>
       <c r="T83" t="n">
-        <v>0.02955575784950468</v>
+        <v>0.02955575784950574</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04045747775996311</v>
+        <v>0.04045747775996307</v>
       </c>
       <c r="V83" t="n">
-        <v>0.02580628387255952</v>
+        <v>0.02580628387255973</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002511099999992439</v>
+        <v>0.001913000000000054</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,10 +7306,10 @@
         <v>359.9653197503224</v>
       </c>
       <c r="F84" t="n">
-        <v>9.984776169285228</v>
+        <v>9.984776169285226</v>
       </c>
       <c r="G84" t="n">
-        <v>49.43713447378741</v>
+        <v>49.4371344737874</v>
       </c>
       <c r="H84" t="n">
         <v>10.72361871271823</v>
@@ -7336,25 +7336,25 @@
         <v>34.80803334525164</v>
       </c>
       <c r="P84" t="n">
-        <v>19.16581872436753</v>
+        <v>19.16581872436752</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.005598144845929427</v>
+        <v>0.005598144845929461</v>
       </c>
       <c r="R84" t="n">
-        <v>0.05038487990309221</v>
+        <v>0.05038487990309123</v>
       </c>
       <c r="S84" t="n">
-        <v>0.06525264329807295</v>
+        <v>0.06525264329807251</v>
       </c>
       <c r="T84" t="n">
-        <v>0.04977389282754198</v>
+        <v>0.04977389282754226</v>
       </c>
       <c r="U84" t="n">
-        <v>0.0431178076340594</v>
+        <v>0.04311780763405949</v>
       </c>
       <c r="V84" t="n">
-        <v>0.02140800470008868</v>
+        <v>0.02140800470008836</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002412999999990006</v>
+        <v>0.001802500000000151</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7394,7 +7394,7 @@
         <v>46.1982457960147</v>
       </c>
       <c r="H85" t="n">
-        <v>11.13370734625507</v>
+        <v>11.13370734625508</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7421,22 +7421,22 @@
         <v>19.79607859275191</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.00561594011958533</v>
+        <v>0.005615940119585378</v>
       </c>
       <c r="R85" t="n">
-        <v>0.05074277406183565</v>
+        <v>0.0507427740618388</v>
       </c>
       <c r="S85" t="n">
-        <v>0.06473352442785645</v>
+        <v>0.06473352442786105</v>
       </c>
       <c r="T85" t="n">
-        <v>0.05454260425166615</v>
+        <v>0.05454260425166836</v>
       </c>
       <c r="U85" t="n">
-        <v>0.03960022003324995</v>
+        <v>0.03960022003324989</v>
       </c>
       <c r="V85" t="n">
-        <v>0.0333056238259084</v>
+        <v>0.03330562382590802</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002943299999998317</v>
+        <v>0.00195729999999994</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.201818283477648</v>
       </c>
       <c r="H86" t="n">
-        <v>7.434000691417587</v>
+        <v>7.434000691417586</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7497,28 +7497,28 @@
         <v>16.40699998673912</v>
       </c>
       <c r="O86" t="n">
-        <v>8.587113088727294</v>
+        <v>8.587113088727307</v>
       </c>
       <c r="P86" t="n">
         <v>16.43119730575459</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.004584250984907659</v>
+        <v>0.004584250984907541</v>
       </c>
       <c r="R86" t="n">
-        <v>0.06002414255348777</v>
+        <v>0.06002414255348678</v>
       </c>
       <c r="S86" t="n">
-        <v>0.01901634407124516</v>
+        <v>0.01901634407124455</v>
       </c>
       <c r="T86" t="n">
-        <v>0.09916893179738433</v>
+        <v>0.09916893179738043</v>
       </c>
       <c r="U86" t="n">
-        <v>0.04469555317682156</v>
+        <v>0.04469555317682145</v>
       </c>
       <c r="V86" t="n">
-        <v>0.01469288107008679</v>
+        <v>0.01469288107007992</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001904999999993606</v>
+        <v>0.001497900000000385</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7585,22 +7585,22 @@
         <v>11.86900038723373</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.005366176039426454</v>
+        <v>0.005366176039427511</v>
       </c>
       <c r="R87" t="n">
-        <v>0.07159924872830582</v>
+        <v>0.07159924872833841</v>
       </c>
       <c r="S87" t="n">
-        <v>0.09236708048147768</v>
+        <v>0.09236708048151872</v>
       </c>
       <c r="T87" t="n">
-        <v>0.03782266980118953</v>
+        <v>0.03782266980120624</v>
       </c>
       <c r="U87" t="n">
-        <v>0.04081529485266072</v>
+        <v>0.04081529485266071</v>
       </c>
       <c r="V87" t="n">
-        <v>0.02190231413888452</v>
+        <v>0.02190231413888477</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.007022899999995502</v>
+        <v>0.005191899999999805</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7637,10 +7637,10 @@
         <v>10.00537719701813</v>
       </c>
       <c r="G88" t="n">
-        <v>36.63166941320934</v>
+        <v>36.63166941320933</v>
       </c>
       <c r="H88" t="n">
-        <v>5.448428599087532</v>
+        <v>5.44842859908753</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>13.61523357778646</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.004871953447820498</v>
+        <v>0.004871953447820307</v>
       </c>
       <c r="R88" t="n">
-        <v>0.03599192926919505</v>
+        <v>0.03599192926919513</v>
       </c>
       <c r="S88" t="n">
-        <v>0.0283497072697403</v>
+        <v>0.02834970726973872</v>
       </c>
       <c r="T88" t="n">
-        <v>0.04842934827855916</v>
+        <v>0.04842934827855658</v>
       </c>
       <c r="U88" t="n">
-        <v>0.04053117130700303</v>
+        <v>0.04053117130700298</v>
       </c>
       <c r="V88" t="n">
-        <v>0.03021304413054107</v>
+        <v>0.03021304413054271</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002162099999992506</v>
+        <v>0.00176470000000073</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.04336811470275513</v>
       </c>
       <c r="F89" t="n">
-        <v>9.784735049703009</v>
+        <v>9.784735049703007</v>
       </c>
       <c r="G89" t="n">
         <v>118.093515356462</v>
       </c>
       <c r="H89" t="n">
-        <v>14.05033272075253</v>
+        <v>14.05033272075252</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7749,22 +7749,22 @@
         <v>16.07029492233642</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.00536362699200908</v>
+        <v>0.005363626992010178</v>
       </c>
       <c r="R89" t="n">
-        <v>0.1134393052268942</v>
+        <v>0.1134393052269442</v>
       </c>
       <c r="S89" t="n">
-        <v>0.1853696679562798</v>
+        <v>0.1853696679563608</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1051142032131253</v>
+        <v>0.1051142032131717</v>
       </c>
       <c r="U89" t="n">
-        <v>0.0401602712256593</v>
+        <v>0.04016027122565936</v>
       </c>
       <c r="V89" t="n">
-        <v>0.1178871306432417</v>
+        <v>0.117887130643243</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005733300000002828</v>
+        <v>0.004143599999999914</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7798,13 +7798,13 @@
         <v>359.9907729509549</v>
       </c>
       <c r="F90" t="n">
-        <v>10.10167788115989</v>
+        <v>10.1016778811599</v>
       </c>
       <c r="G90" t="n">
         <v>116.5646003012499</v>
       </c>
       <c r="H90" t="n">
-        <v>9.21714065388575</v>
+        <v>9.217140653885753</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7831,22 +7831,22 @@
         <v>11.34937821784214</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.005438074144884264</v>
+        <v>0.005438074144884422</v>
       </c>
       <c r="R90" t="n">
-        <v>0.07688397920285299</v>
+        <v>0.07688397920286044</v>
       </c>
       <c r="S90" t="n">
-        <v>0.09547858503654638</v>
+        <v>0.09547858503655483</v>
       </c>
       <c r="T90" t="n">
-        <v>0.04670306758529547</v>
+        <v>0.04670306758530015</v>
       </c>
       <c r="U90" t="n">
-        <v>0.03985034330646201</v>
+        <v>0.03985034330646202</v>
       </c>
       <c r="V90" t="n">
-        <v>0.05941528534816928</v>
+        <v>0.05941528534817105</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.006895000000000095</v>
+        <v>0.004250199999999538</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7886,7 +7886,7 @@
         <v>90.11975130191601</v>
       </c>
       <c r="H91" t="n">
-        <v>6.0437739424285</v>
+        <v>6.043773942428501</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>11.19844932803231</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004958490463508729</v>
+        <v>0.004958490463508747</v>
       </c>
       <c r="R91" t="n">
-        <v>0.04050884430005294</v>
+        <v>0.04050884430005168</v>
       </c>
       <c r="S91" t="n">
-        <v>0.04726498876847786</v>
+        <v>0.04726498876847688</v>
       </c>
       <c r="T91" t="n">
-        <v>0.01590802624646908</v>
+        <v>0.01590802624646904</v>
       </c>
       <c r="U91" t="n">
-        <v>0.04158380513608152</v>
+        <v>0.04158380513608154</v>
       </c>
       <c r="V91" t="n">
-        <v>0.02281058866599109</v>
+        <v>0.0228105886659901</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003071499999990124</v>
+        <v>0.002353899999999243</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -7965,10 +7965,10 @@
         <v>9.944092164224056</v>
       </c>
       <c r="G92" t="n">
-        <v>27.26511699838384</v>
+        <v>27.26511699838382</v>
       </c>
       <c r="H92" t="n">
-        <v>4.931800770360066</v>
+        <v>4.931800770360067</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>13.17227197931843</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.00464597355205043</v>
+        <v>0.004645973552050548</v>
       </c>
       <c r="R92" t="n">
-        <v>0.03690567030282609</v>
+        <v>0.03690567030282651</v>
       </c>
       <c r="S92" t="n">
-        <v>0.02287206044963683</v>
+        <v>0.02287206044963757</v>
       </c>
       <c r="T92" t="n">
-        <v>0.05550236252845103</v>
+        <v>0.05550236252845278</v>
       </c>
       <c r="U92" t="n">
-        <v>0.04285478238196987</v>
+        <v>0.04285478238196991</v>
       </c>
       <c r="V92" t="n">
-        <v>0.03520373132346033</v>
+        <v>0.0352037313234615</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002237399999998502</v>
+        <v>0.00313759999999963</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8047,10 +8047,10 @@
         <v>9.966735600713074</v>
       </c>
       <c r="G93" t="n">
-        <v>36.15145901306469</v>
+        <v>36.15145901306468</v>
       </c>
       <c r="H93" t="n">
-        <v>6.935759568137376</v>
+        <v>6.935759568137379</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8077,22 +8077,22 @@
         <v>15.32617692177842</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.005076276692916084</v>
+        <v>0.005076276692915962</v>
       </c>
       <c r="R93" t="n">
-        <v>0.039169160385839</v>
+        <v>0.03916916038583935</v>
       </c>
       <c r="S93" t="n">
-        <v>0.03407275870867879</v>
+        <v>0.03407275870867837</v>
       </c>
       <c r="T93" t="n">
-        <v>0.05146479957753632</v>
+        <v>0.05146479957753477</v>
       </c>
       <c r="U93" t="n">
-        <v>0.03762659337715368</v>
+        <v>0.03762659337715366</v>
       </c>
       <c r="V93" t="n">
-        <v>0.01094984061486754</v>
+        <v>0.01094984061486658</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.00221360000000459</v>
+        <v>0.001773400000000258</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8159,16 +8159,16 @@
         <v>9.249156984578068</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.002509723906104199</v>
+        <v>0.002509723906104203</v>
       </c>
       <c r="R94" t="n">
-        <v>0.03546492936405722</v>
+        <v>0.03546492936405389</v>
       </c>
       <c r="S94" t="n">
-        <v>0.02423327391676364</v>
+        <v>0.02423327391676162</v>
       </c>
       <c r="T94" t="n">
-        <v>0.05055429856684754</v>
+        <v>0.05055429856684283</v>
       </c>
       <c r="U94" t="n">
         <v>0.0357022177527057</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.007321300000000974</v>
+        <v>0.004308799999999557</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8208,7 +8208,7 @@
         <v>359.9823166065312</v>
       </c>
       <c r="F95" t="n">
-        <v>9.998297668504858</v>
+        <v>9.998297668504861</v>
       </c>
       <c r="G95" t="n">
         <v>109.1282087392729</v>
@@ -8241,22 +8241,22 @@
         <v>13.87081044488647</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.005607875271623096</v>
+        <v>0.005607875271622959</v>
       </c>
       <c r="R95" t="n">
-        <v>0.08637402777333969</v>
+        <v>0.08637402777333734</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1250262654200135</v>
+        <v>0.1250262654200097</v>
       </c>
       <c r="T95" t="n">
-        <v>0.04876127615048795</v>
+        <v>0.04876127615048682</v>
       </c>
       <c r="U95" t="n">
-        <v>0.03607118594594018</v>
+        <v>0.03607118594594024</v>
       </c>
       <c r="V95" t="n">
-        <v>0.003919133209217505</v>
+        <v>0.003919133209217913</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.0052802000000014</v>
+        <v>0.004148799999999397</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8290,7 +8290,7 @@
         <v>359.9975888340769</v>
       </c>
       <c r="F96" t="n">
-        <v>9.984655109063695</v>
+        <v>9.984655109063693</v>
       </c>
       <c r="G96" t="n">
         <v>129.447529072152</v>
@@ -8323,22 +8323,22 @@
         <v>10.69632008162418</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.005410325293015217</v>
+        <v>0.00541032529301225</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1024857938725661</v>
+        <v>0.102485793872465</v>
       </c>
       <c r="S96" t="n">
-        <v>0.1186062428069105</v>
+        <v>0.1186062428067951</v>
       </c>
       <c r="T96" t="n">
-        <v>0.09186704175603544</v>
+        <v>0.09186704175594483</v>
       </c>
       <c r="U96" t="n">
-        <v>0.03989938055522559</v>
+        <v>0.03989938055522552</v>
       </c>
       <c r="V96" t="n">
-        <v>0.01242030367924784</v>
+        <v>0.01242030367924827</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.007073800000000574</v>
+        <v>0.004184999999999661</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8372,13 +8372,13 @@
         <v>359.9899510063217</v>
       </c>
       <c r="F97" t="n">
-        <v>9.998811058210999</v>
+        <v>9.998811058211</v>
       </c>
       <c r="G97" t="n">
         <v>41.1377863283173</v>
       </c>
       <c r="H97" t="n">
-        <v>5.303986909833274</v>
+        <v>5.303986909833275</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>23.74355496103273</v>
       </c>
       <c r="P97" t="n">
-        <v>13.30186957253375</v>
+        <v>13.30186957253376</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.004878320137736022</v>
+        <v>0.004878320137736181</v>
       </c>
       <c r="R97" t="n">
-        <v>0.03510457439188747</v>
+        <v>0.03510457439188649</v>
       </c>
       <c r="S97" t="n">
-        <v>0.02943029968705749</v>
+        <v>0.02943029968705806</v>
       </c>
       <c r="T97" t="n">
-        <v>0.04453505927867474</v>
+        <v>0.04453505927867654</v>
       </c>
       <c r="U97" t="n">
-        <v>0.03775898157776033</v>
+        <v>0.03775898157776029</v>
       </c>
       <c r="V97" t="n">
-        <v>0.01130477370848937</v>
+        <v>0.01130477370849066</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002215000000006739</v>
+        <v>0.002069500000000168</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8457,7 +8457,7 @@
         <v>10.00132126861568</v>
       </c>
       <c r="G98" t="n">
-        <v>38.68508084496621</v>
+        <v>38.68508084496619</v>
       </c>
       <c r="H98" t="n">
         <v>13.806782321537</v>
@@ -8487,22 +8487,22 @@
         <v>23.36401448242705</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.005891611428642128</v>
+        <v>0.005891611428642005</v>
       </c>
       <c r="R98" t="n">
-        <v>0.05726956436150332</v>
+        <v>0.05726956436149853</v>
       </c>
       <c r="S98" t="n">
-        <v>0.07317204523789568</v>
+        <v>0.0731720452378886</v>
       </c>
       <c r="T98" t="n">
-        <v>0.07615846395832238</v>
+        <v>0.07615846395831685</v>
       </c>
       <c r="U98" t="n">
-        <v>0.03870356823220036</v>
+        <v>0.03870356823220043</v>
       </c>
       <c r="V98" t="n">
-        <v>0.02987097390023107</v>
+        <v>0.02987097390023036</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002456299999991529</v>
+        <v>0.001895899999999173</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8566,25 +8566,25 @@
         <v>128.996645134817</v>
       </c>
       <c r="P99" t="n">
-        <v>12.69144707425079</v>
+        <v>12.69144707425078</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.002916874348873665</v>
+        <v>0.002916874348873577</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0444409445265975</v>
+        <v>0.04444094452657099</v>
       </c>
       <c r="S99" t="n">
-        <v>0.04412943965937146</v>
+        <v>0.04412943965934577</v>
       </c>
       <c r="T99" t="n">
-        <v>0.06837391954676497</v>
+        <v>0.06837391954672421</v>
       </c>
       <c r="U99" t="n">
-        <v>0.03916144789414097</v>
+        <v>0.03916144789414087</v>
       </c>
       <c r="V99" t="n">
-        <v>0.0441785109212973</v>
+        <v>0.04417851092129592</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005749600000001465</v>
+        <v>0.005630200000000585</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8618,13 +8618,13 @@
         <v>0.0439360223993247</v>
       </c>
       <c r="F100" t="n">
-        <v>9.907905551425907</v>
+        <v>9.907905551425911</v>
       </c>
       <c r="G100" t="n">
         <v>131.8862253299267</v>
       </c>
       <c r="H100" t="n">
-        <v>9.66930878552475</v>
+        <v>9.669308785524754</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>92.6559347963323</v>
       </c>
       <c r="P100" t="n">
-        <v>9.826844249802543</v>
+        <v>9.826844249802546</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.00529150342371042</v>
+        <v>0.005291503423703015</v>
       </c>
       <c r="R100" t="n">
-        <v>0.09846295287617184</v>
+        <v>0.09846295287593954</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1077364247151654</v>
+        <v>0.1077364247149131</v>
       </c>
       <c r="T100" t="n">
-        <v>0.08822871189129486</v>
+        <v>0.08822871189108683</v>
       </c>
       <c r="U100" t="n">
-        <v>0.04381613547290015</v>
+        <v>0.0438161354729003</v>
       </c>
       <c r="V100" t="n">
-        <v>0.05810166227447309</v>
+        <v>0.05810166227447158</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.006214700000001017</v>
+        <v>0.004931799999999598</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8706,7 +8706,7 @@
         <v>120.9955105173635</v>
       </c>
       <c r="H101" t="n">
-        <v>8.900201444947179</v>
+        <v>8.900201444947182</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8733,22 +8733,22 @@
         <v>10.49845791905614</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.00539920979610005</v>
+        <v>0.005399209796099811</v>
       </c>
       <c r="R101" t="n">
-        <v>0.07731747524266727</v>
+        <v>0.07731747524266093</v>
       </c>
       <c r="S101" t="n">
-        <v>0.09139184539456777</v>
+        <v>0.09139184539456044</v>
       </c>
       <c r="T101" t="n">
-        <v>0.05130623013572436</v>
+        <v>0.05130623013572016</v>
       </c>
       <c r="U101" t="n">
-        <v>0.03891764681073601</v>
+        <v>0.03891764681073596</v>
       </c>
       <c r="V101" t="n">
-        <v>0.02055517340004304</v>
+        <v>0.0205551734000446</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.007261799999994878</v>
+        <v>0.005437299999999645</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>
